--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1440705.760737517</v>
+        <v>1440303.871421256</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>241946.9810785743</v>
+        <v>241946.9810785757</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736556</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>159.2082783923574</v>
       </c>
       <c r="F2" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>345.2364392200623</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>2.404693395356906</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -747,16 +747,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>82.944820950408</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>48.79589417666581</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.31882417064585</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>378.5204564613102</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -905,7 +905,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>169.822385843238</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>107.4232092342327</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>136.3962136764579</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>73.75270603218317</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>23.62900810605255</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>196.4701257368757</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>229.7361283140945</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>7.431982368242488</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1278,7 +1278,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>95.4601258911498</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>56.78874461372734</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -1297,7 +1297,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>207.2776687100217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>280.8016135680806</v>
+        <v>22.83275106742411</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>259.7942345702903</v>
       </c>
       <c r="E11" t="n">
-        <v>281.5363721401959</v>
+        <v>281.5363721401958</v>
       </c>
       <c r="F11" t="n">
         <v>300.708188228173</v>
@@ -1385,7 +1385,7 @@
         <v>302.6414561255955</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>220.1915711039054</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>76.05519506119123</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>112.8138662515406</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>143.0349923683875</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>224.3079908082597</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>249.6080902862166</v>
       </c>
       <c r="X11" t="n">
-        <v>148.8350937273109</v>
+        <v>268.9083485189632</v>
       </c>
       <c r="Y11" t="n">
-        <v>280.304946315162</v>
+        <v>280.3049463151619</v>
       </c>
     </row>
     <row r="12">
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>151.2714921173871</v>
+        <v>127.8326629072939</v>
       </c>
       <c r="T12" t="n">
-        <v>104.1729973695789</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
         <v>216.3098444776729</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.41832444277767</v>
+        <v>72.4183244427776</v>
       </c>
       <c r="C13" t="n">
-        <v>58.61831928817816</v>
+        <v>58.61831928817809</v>
       </c>
       <c r="D13" t="n">
-        <v>42.23968368575655</v>
+        <v>42.23968368575648</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>41.18743354153592</v>
       </c>
       <c r="F13" t="n">
-        <v>41.6543578697223</v>
+        <v>41.65435786972223</v>
       </c>
       <c r="G13" t="n">
-        <v>57.92906059107014</v>
+        <v>57.92906059107007</v>
       </c>
       <c r="H13" t="n">
-        <v>48.47742821376056</v>
+        <v>48.47742821376049</v>
       </c>
       <c r="I13" t="n">
-        <v>33.45952339858991</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>38.72507301700722</v>
+        <v>38.72507301700715</v>
       </c>
       <c r="S13" t="n">
-        <v>102.271174415591</v>
+        <v>102.2711744155909</v>
       </c>
       <c r="T13" t="n">
-        <v>121.5456730977196</v>
+        <v>121.5456730977195</v>
       </c>
       <c r="U13" t="n">
-        <v>175.0168465610328</v>
+        <v>175.0168465610327</v>
       </c>
       <c r="V13" t="n">
-        <v>148.8264608424033</v>
+        <v>148.8264608424032</v>
       </c>
       <c r="W13" t="n">
-        <v>173.9933469130165</v>
+        <v>109.0219564813885</v>
       </c>
       <c r="X13" t="n">
         <v>119.6384489088196</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.26983637620383</v>
+        <v>110.5133166648873</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>280.8016135680806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>268.8129305257623</v>
+        <v>268.8129305257622</v>
       </c>
       <c r="D14" t="n">
-        <v>259.7942345702903</v>
+        <v>259.7942345702902</v>
       </c>
       <c r="E14" t="n">
-        <v>281.5363721401959</v>
+        <v>281.5363721401958</v>
       </c>
       <c r="F14" t="n">
         <v>300.708188228173</v>
@@ -1622,10 +1622,10 @@
         <v>302.6414561255955</v>
       </c>
       <c r="H14" t="n">
-        <v>220.1915711039055</v>
+        <v>220.1915711039054</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.78753624853351</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>76.05519506119123</v>
+        <v>76.05519506119114</v>
       </c>
       <c r="T14" t="n">
-        <v>112.8138662515406</v>
+        <v>112.8138662515405</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>143.0349923683875</v>
       </c>
       <c r="V14" t="n">
-        <v>27.17357527429177</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>114.5492580216482</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>268.9083485189632</v>
       </c>
       <c r="Y14" t="n">
-        <v>280.304946315162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>77.46138060535908</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
         <v>137.45025063969</v>
@@ -1695,7 +1695,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>50.72160464352728</v>
       </c>
       <c r="G15" t="n">
         <v>127.4412149769483</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.41832444277767</v>
+        <v>72.41832444277759</v>
       </c>
       <c r="C16" t="n">
-        <v>58.61831928817816</v>
+        <v>58.61831928817807</v>
       </c>
       <c r="D16" t="n">
-        <v>42.23968368575655</v>
+        <v>42.23968368575646</v>
       </c>
       <c r="E16" t="n">
-        <v>41.187433541536</v>
+        <v>41.18743354153591</v>
       </c>
       <c r="F16" t="n">
-        <v>41.6543578697223</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>41.43509837319949</v>
+        <v>57.92906059107005</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>25.16039565185441</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>38.72507301700722</v>
+        <v>38.72507301700713</v>
       </c>
       <c r="S16" t="n">
-        <v>102.271174415591</v>
+        <v>102.2711744155909</v>
       </c>
       <c r="T16" t="n">
-        <v>121.5456730977196</v>
+        <v>121.5456730977195</v>
       </c>
       <c r="U16" t="n">
-        <v>175.0168465610328</v>
+        <v>175.0168465610327</v>
       </c>
       <c r="V16" t="n">
-        <v>148.8264608424033</v>
+        <v>148.8264608424032</v>
       </c>
       <c r="W16" t="n">
-        <v>173.9933469130165</v>
+        <v>173.9933469130164</v>
       </c>
       <c r="X16" t="n">
         <v>119.6384489088196</v>
       </c>
       <c r="Y16" t="n">
-        <v>110.5133166648873</v>
+        <v>110.5133166648872</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>158.826678906834</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4226440514621856</v>
+        <v>0.4226440514621572</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.69030286411981</v>
+        <v>14.69030286411979</v>
       </c>
       <c r="T17" t="n">
-        <v>51.44897405446918</v>
+        <v>51.44897405446915</v>
       </c>
       <c r="U17" t="n">
-        <v>81.67010017131614</v>
+        <v>81.67010017131611</v>
       </c>
       <c r="V17" t="n">
         <v>162.9430986111883</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75.19999292735261</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>151.2714921173871</v>
+        <v>127.8326629072939</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.05343224570626</v>
+        <v>11.05343224570623</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.90628221851955</v>
+        <v>40.90628221851952</v>
       </c>
       <c r="T19" t="n">
-        <v>60.18078090064819</v>
+        <v>60.18078090064816</v>
       </c>
       <c r="U19" t="n">
-        <v>113.6519543639614</v>
+        <v>113.6519543639613</v>
       </c>
       <c r="V19" t="n">
-        <v>87.46156864533185</v>
+        <v>87.46156864533182</v>
       </c>
       <c r="W19" t="n">
         <v>112.6284547159451</v>
       </c>
       <c r="X19" t="n">
-        <v>58.27355671174823</v>
+        <v>58.2735567117482</v>
       </c>
       <c r="Y19" t="n">
-        <v>49.14842446781591</v>
+        <v>49.14842446781589</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.4367213710092</v>
+        <v>219.4367213710091</v>
       </c>
       <c r="C20" t="n">
-        <v>207.448038328691</v>
+        <v>207.4480383286908</v>
       </c>
       <c r="D20" t="n">
-        <v>198.4293423732189</v>
+        <v>198.4293423732188</v>
       </c>
       <c r="E20" t="n">
-        <v>220.1714799431245</v>
+        <v>220.1714799431244</v>
       </c>
       <c r="F20" t="n">
-        <v>239.3432960311016</v>
+        <v>239.3432960311015</v>
       </c>
       <c r="G20" t="n">
-        <v>241.2765639285242</v>
+        <v>241.276563928524</v>
       </c>
       <c r="H20" t="n">
-        <v>158.8266789068341</v>
+        <v>158.826678906834</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4226440514622141</v>
+        <v>0.4226440514621004</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.69030286411984</v>
+        <v>14.69030286411973</v>
       </c>
       <c r="T20" t="n">
-        <v>51.4489740544692</v>
+        <v>51.44897405446909</v>
       </c>
       <c r="U20" t="n">
-        <v>81.67010017131616</v>
+        <v>81.67010017131605</v>
       </c>
       <c r="V20" t="n">
-        <v>162.9430986111883</v>
+        <v>162.9430986111882</v>
       </c>
       <c r="W20" t="n">
-        <v>188.2431980891452</v>
+        <v>188.2431980891451</v>
       </c>
       <c r="X20" t="n">
-        <v>207.5434563218919</v>
+        <v>207.5434563218917</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.9400541180906</v>
+        <v>218.9400541180905</v>
       </c>
     </row>
     <row r="21">
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>127.8326629072939</v>
       </c>
       <c r="T21" t="n">
-        <v>104.1729973695789</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
         <v>216.3098444776729</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.05343224570629</v>
+        <v>11.05343224570618</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>40.90628221851958</v>
+        <v>40.90628221851946</v>
       </c>
       <c r="T22" t="n">
-        <v>60.18078090064822</v>
+        <v>60.1807809006481</v>
       </c>
       <c r="U22" t="n">
-        <v>113.6519543639614</v>
+        <v>113.6519543639613</v>
       </c>
       <c r="V22" t="n">
-        <v>87.46156864533188</v>
+        <v>87.46156864533177</v>
       </c>
       <c r="W22" t="n">
-        <v>112.6284547159451</v>
+        <v>112.628454715945</v>
       </c>
       <c r="X22" t="n">
-        <v>58.27355671174826</v>
+        <v>58.27355671174814</v>
       </c>
       <c r="Y22" t="n">
-        <v>49.14842446781594</v>
+        <v>49.14842446781583</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>219.4367213710092</v>
+        <v>219.4367213710091</v>
       </c>
       <c r="C23" t="n">
-        <v>207.448038328691</v>
+        <v>207.4480383286908</v>
       </c>
       <c r="D23" t="n">
-        <v>198.4293423732189</v>
+        <v>198.4293423732188</v>
       </c>
       <c r="E23" t="n">
-        <v>220.1714799431245</v>
+        <v>220.1714799431244</v>
       </c>
       <c r="F23" t="n">
-        <v>239.3432960311016</v>
+        <v>239.3432960311015</v>
       </c>
       <c r="G23" t="n">
-        <v>241.2765639285242</v>
+        <v>241.276563928524</v>
       </c>
       <c r="H23" t="n">
-        <v>158.8266789068341</v>
+        <v>158.826678906834</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4226440514622141</v>
+        <v>0.4226440514621004</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.69030286411984</v>
+        <v>14.69030286411973</v>
       </c>
       <c r="T23" t="n">
-        <v>51.4489740544692</v>
+        <v>51.44897405446909</v>
       </c>
       <c r="U23" t="n">
-        <v>81.67010017131616</v>
+        <v>81.67010017131605</v>
       </c>
       <c r="V23" t="n">
-        <v>162.9430986111883</v>
+        <v>162.9430986111882</v>
       </c>
       <c r="W23" t="n">
-        <v>188.2431980891452</v>
+        <v>188.2431980891451</v>
       </c>
       <c r="X23" t="n">
-        <v>207.5434563218919</v>
+        <v>207.5434563218917</v>
       </c>
       <c r="Y23" t="n">
-        <v>218.9400541180906</v>
+        <v>218.9400541180905</v>
       </c>
     </row>
     <row r="24">
@@ -2409,7 +2409,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>44.81595955085031</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
@@ -2460,7 +2460,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>113.3125628148881</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
         <v>190.5961130869169</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.05343224570629</v>
+        <v>11.05343224570618</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.90628221851958</v>
+        <v>40.90628221851946</v>
       </c>
       <c r="T25" t="n">
-        <v>60.18078090064822</v>
+        <v>60.1807809006481</v>
       </c>
       <c r="U25" t="n">
-        <v>113.6519543639614</v>
+        <v>113.6519543639613</v>
       </c>
       <c r="V25" t="n">
-        <v>87.46156864533188</v>
+        <v>87.46156864533177</v>
       </c>
       <c r="W25" t="n">
-        <v>112.6284547159451</v>
+        <v>112.628454715945</v>
       </c>
       <c r="X25" t="n">
-        <v>58.27355671174826</v>
+        <v>58.27355671174814</v>
       </c>
       <c r="Y25" t="n">
-        <v>49.14842446781594</v>
+        <v>49.14842446781583</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16.16116373505658</v>
+        <v>276.6729386146303</v>
       </c>
       <c r="C26" t="n">
         <v>264.684255572312</v>
       </c>
       <c r="D26" t="n">
-        <v>255.66555961684</v>
+        <v>182.9743387749494</v>
       </c>
       <c r="E26" t="n">
         <v>277.4076971867455</v>
@@ -2573,7 +2573,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>57.65886129508324</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.9265201077409</v>
+        <v>71.92652010774087</v>
       </c>
       <c r="T26" t="n">
-        <v>108.6851912980903</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
         <v>138.9063174149372</v>
@@ -2615,7 +2615,7 @@
         <v>220.1793158548094</v>
       </c>
       <c r="W26" t="n">
-        <v>245.4794153327663</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>264.7796735655129</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2688,7 +2688,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
-        <v>201.7443531921692</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932735</v>
+        <v>68.28964948932732</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472783</v>
+        <v>54.4896443347278</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230622</v>
+        <v>38.11100873230619</v>
       </c>
       <c r="E28" t="n">
-        <v>37.05875858808567</v>
+        <v>37.05875858808564</v>
       </c>
       <c r="F28" t="n">
-        <v>37.52568291627198</v>
+        <v>37.52568291627195</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761981</v>
+        <v>53.80038563761978</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031023</v>
+        <v>44.3487532603102</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513958</v>
+        <v>29.33084844513955</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355689</v>
+        <v>34.59639806355686</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214063</v>
+        <v>98.14249946214061</v>
       </c>
       <c r="T28" t="n">
-        <v>117.4169981442693</v>
+        <v>117.4169981442692</v>
       </c>
       <c r="U28" t="n">
         <v>170.8881716075824</v>
@@ -2792,7 +2792,7 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C29" t="n">
-        <v>264.6842555723119</v>
+        <v>162.5765155481109</v>
       </c>
       <c r="D29" t="n">
         <v>255.6655596168399</v>
@@ -2801,16 +2801,16 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G29" t="n">
-        <v>298.5127811721451</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H29" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508321</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774084</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
@@ -2849,16 +2849,16 @@
         <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>147.4880950129195</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="30">
@@ -2883,7 +2883,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>112.8757236914446</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
         <v>98.93847887876893</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932729</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E31" t="n">
-        <v>37.05875858808561</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F31" t="n">
-        <v>37.52568291627192</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3010,13 +3010,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W31" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X31" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>248.7898580267162</v>
+        <v>248.7898580267161</v>
       </c>
       <c r="C32" t="n">
         <v>236.8011749843979</v>
       </c>
       <c r="D32" t="n">
-        <v>227.7824790289259</v>
+        <v>227.7824790289258</v>
       </c>
       <c r="E32" t="n">
         <v>249.5246165988314</v>
       </c>
       <c r="F32" t="n">
-        <v>268.6964326868086</v>
+        <v>268.6964326868085</v>
       </c>
       <c r="G32" t="n">
-        <v>270.6297005842311</v>
+        <v>270.629700584231</v>
       </c>
       <c r="H32" t="n">
         <v>188.179815562541</v>
       </c>
       <c r="I32" t="n">
-        <v>29.77578070716916</v>
+        <v>29.77578070716913</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>44.04343951982679</v>
+        <v>44.04343951982676</v>
       </c>
       <c r="T32" t="n">
-        <v>80.80211071017615</v>
+        <v>80.80211071017612</v>
       </c>
       <c r="U32" t="n">
         <v>111.0232368270231</v>
@@ -3095,7 +3095,7 @@
         <v>236.8965929775988</v>
       </c>
       <c r="Y32" t="n">
-        <v>248.2931907737976</v>
+        <v>248.2931907737975</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>143.2597570679447</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C33" t="n">
         <v>160.0866360314548</v>
@@ -3126,7 +3126,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133624</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.40656890141324</v>
+        <v>40.40656890141321</v>
       </c>
       <c r="C34" t="n">
-        <v>26.60656374681372</v>
+        <v>26.60656374681369</v>
       </c>
       <c r="D34" t="n">
-        <v>10.22792814439211</v>
+        <v>10.22792814439208</v>
       </c>
       <c r="E34" t="n">
-        <v>9.175678000171558</v>
+        <v>9.17567800017153</v>
       </c>
       <c r="F34" t="n">
-        <v>9.642602328357867</v>
+        <v>9.642602328357839</v>
       </c>
       <c r="G34" t="n">
-        <v>25.9173050497057</v>
+        <v>25.91730504970567</v>
       </c>
       <c r="H34" t="n">
-        <v>16.46567267239612</v>
+        <v>16.4656726723961</v>
       </c>
       <c r="I34" t="n">
-        <v>1.447767857225472</v>
+        <v>1.447767857225443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.713317475642782</v>
+        <v>6.713317475642754</v>
       </c>
       <c r="S34" t="n">
-        <v>70.25941887422653</v>
+        <v>70.2594188742265</v>
       </c>
       <c r="T34" t="n">
-        <v>89.53391755635516</v>
+        <v>89.53391755635514</v>
       </c>
       <c r="U34" t="n">
         <v>143.0050910196683</v>
@@ -3250,10 +3250,10 @@
         <v>141.9815913716521</v>
       </c>
       <c r="X34" t="n">
-        <v>87.6266933674552</v>
+        <v>87.62669336745518</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.50156112352289</v>
+        <v>78.50156112352286</v>
       </c>
     </row>
     <row r="35">
@@ -3357,7 +3357,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
         <v>98.93847887876893</v>
@@ -3402,7 +3402,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V36" t="n">
-        <v>226.1116663261494</v>
+        <v>211.546175040646</v>
       </c>
       <c r="W36" t="n">
         <v>238.9027100790231</v>
@@ -3597,7 +3597,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I39" t="n">
         <v>67.69846245683961</v>
@@ -3633,7 +3633,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
         <v>216.3098444776729</v>
@@ -3837,7 +3837,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.9740389803821</v>
+        <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E44" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G44" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H44" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835063</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349269</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384205</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068901</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W44" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274635</v>
+        <v>223.4773717274634</v>
       </c>
     </row>
     <row r="45">
@@ -4065,7 +4065,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>118.7813687841211</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
         <v>127.4412149769483</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507914</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479621</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371605</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789243</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002106</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470473</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W46" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X46" t="n">
-        <v>62.8108743211211</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718879</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1570.445818927066</v>
+        <v>799.80968239771</v>
       </c>
       <c r="C2" t="n">
-        <v>1570.445818927066</v>
+        <v>799.80968239771</v>
       </c>
       <c r="D2" t="n">
-        <v>1197.621854154289</v>
+        <v>799.80968239771</v>
       </c>
       <c r="E2" t="n">
-        <v>802.836134260396</v>
+        <v>638.9932395771471</v>
       </c>
       <c r="F2" t="n">
-        <v>388.6849435705663</v>
+        <v>224.8420488873174</v>
       </c>
       <c r="G2" t="n">
-        <v>39.96126759070542</v>
+        <v>212.7784663819094</v>
       </c>
       <c r="H2" t="n">
-        <v>39.96126759070542</v>
+        <v>212.7784663819094</v>
       </c>
       <c r="I2" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="J2" t="n">
         <v>111.9598118635111</v>
@@ -4343,37 +4343,37 @@
         <v>1471.556081934044</v>
       </c>
       <c r="O2" t="n">
-        <v>1675.474229392681</v>
+        <v>1776.560666406878</v>
       </c>
       <c r="P2" t="n">
-        <v>1903.631125848734</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="Q2" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="R2" t="n">
-        <v>1907.425093031124</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="S2" t="n">
-        <v>1907.425093031124</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="T2" t="n">
-        <v>1907.425093031124</v>
+        <v>1773.704433266281</v>
       </c>
       <c r="U2" t="n">
-        <v>1907.425093031124</v>
+        <v>1518.819096980275</v>
       </c>
       <c r="V2" t="n">
-        <v>1570.445818927066</v>
+        <v>1181.839822876217</v>
       </c>
       <c r="W2" t="n">
-        <v>1570.445818927066</v>
+        <v>1181.839822876217</v>
       </c>
       <c r="X2" t="n">
-        <v>1570.445818927066</v>
+        <v>799.80968239771</v>
       </c>
       <c r="Y2" t="n">
-        <v>1570.445818927066</v>
+        <v>799.80968239771</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>759.9993385613375</v>
+        <v>571.3142347273219</v>
       </c>
       <c r="C3" t="n">
-        <v>757.5703553337042</v>
+        <v>409.6105619682767</v>
       </c>
       <c r="D3" t="n">
-        <v>618.7317183239163</v>
+        <v>270.7719249584887</v>
       </c>
       <c r="E3" t="n">
-        <v>471.7037083807875</v>
+        <v>123.74391501536</v>
       </c>
       <c r="F3" t="n">
-        <v>337.0099103306618</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="G3" t="n">
-        <v>208.2814103539464</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="H3" t="n">
-        <v>108.3435529006444</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="I3" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="J3" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="K3" t="n">
-        <v>39.96126759070542</v>
+        <v>269.451820150894</v>
       </c>
       <c r="L3" t="n">
-        <v>405.783112760821</v>
+        <v>635.2736653210097</v>
       </c>
       <c r="M3" t="n">
-        <v>651.475193254849</v>
+        <v>1120.307018831236</v>
       </c>
       <c r="N3" t="n">
-        <v>1145.995879689829</v>
+        <v>1605.863428751119</v>
       </c>
       <c r="O3" t="n">
-        <v>1538.195830473979</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="P3" t="n">
-        <v>1840.291749749677</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="Q3" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="R3" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="S3" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="T3" t="n">
-        <v>1998.063379535271</v>
+        <v>1809.378275701255</v>
       </c>
       <c r="U3" t="n">
-        <v>1779.568587133581</v>
+        <v>1590.883483299565</v>
       </c>
       <c r="V3" t="n">
-        <v>1551.172964581915</v>
+        <v>1362.487860747899</v>
       </c>
       <c r="W3" t="n">
-        <v>1309.857095815225</v>
+        <v>1121.171991981209</v>
       </c>
       <c r="X3" t="n">
-        <v>1111.94010769302</v>
+        <v>923.255003859004</v>
       </c>
       <c r="Y3" t="n">
-        <v>919.4187813425984</v>
+        <v>730.7336775085828</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.96126759070542</v>
+        <v>89.25004958733754</v>
       </c>
       <c r="C4" t="n">
-        <v>39.96126759070542</v>
+        <v>89.25004958733754</v>
       </c>
       <c r="D4" t="n">
-        <v>39.96126759070542</v>
+        <v>89.25004958733754</v>
       </c>
       <c r="E4" t="n">
-        <v>39.96126759070542</v>
+        <v>89.25004958733754</v>
       </c>
       <c r="F4" t="n">
-        <v>39.96126759070542</v>
+        <v>89.25004958733754</v>
       </c>
       <c r="G4" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="H4" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="I4" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="J4" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="K4" t="n">
-        <v>73.56545533534883</v>
+        <v>73.56545533534882</v>
       </c>
       <c r="L4" t="n">
         <v>174.1725347356083</v>
@@ -4510,28 +4510,28 @@
         <v>572.0205128366379</v>
       </c>
       <c r="R4" t="n">
-        <v>486.849983371339</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="S4" t="n">
-        <v>273.1402207750266</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="T4" t="n">
-        <v>39.96126759070542</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="U4" t="n">
-        <v>39.96126759070542</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="V4" t="n">
-        <v>39.96126759070542</v>
+        <v>311.2852083950605</v>
       </c>
       <c r="W4" t="n">
-        <v>39.96126759070542</v>
+        <v>311.2852083950605</v>
       </c>
       <c r="X4" t="n">
-        <v>39.96126759070542</v>
+        <v>311.2852083950605</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.96126759070542</v>
+        <v>89.25004958733754</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1211.679080079401</v>
+        <v>1615.719484119805</v>
       </c>
       <c r="C5" t="n">
-        <v>829.7453214122086</v>
+        <v>1233.785725452612</v>
       </c>
       <c r="D5" t="n">
-        <v>456.9213566394321</v>
+        <v>860.9617606798362</v>
       </c>
       <c r="E5" t="n">
-        <v>62.135636745539</v>
+        <v>466.176040785943</v>
       </c>
       <c r="F5" t="n">
-        <v>52.02485009611338</v>
+        <v>52.02485009611337</v>
       </c>
       <c r="G5" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="H5" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="I5" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="J5" t="n">
         <v>111.9598118635111</v>
@@ -4574,43 +4574,43 @@
         <v>699.9855569932402</v>
       </c>
       <c r="M5" t="n">
-        <v>992.1382862321311</v>
+        <v>1093.224723246328</v>
       </c>
       <c r="N5" t="n">
-        <v>1370.469644919847</v>
+        <v>1370.469644919846</v>
       </c>
       <c r="O5" t="n">
-        <v>1675.474229392681</v>
+        <v>1675.47422939268</v>
       </c>
       <c r="P5" t="n">
-        <v>1903.631125848734</v>
+        <v>1903.631125848733</v>
       </c>
       <c r="Q5" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="R5" t="n">
-        <v>1907.425093031124</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="S5" t="n">
-        <v>1720.196117661478</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="T5" t="n">
-        <v>1720.196117661478</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="U5" t="n">
-        <v>1720.196117661478</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="V5" t="n">
-        <v>1383.216843557419</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="W5" t="n">
-        <v>1211.679080079401</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="X5" t="n">
-        <v>1211.679080079401</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="Y5" t="n">
-        <v>1211.679080079401</v>
+        <v>1998.06337953527</v>
       </c>
     </row>
     <row r="6">
@@ -4632,64 +4632,64 @@
         <v>174.6550656408311</v>
       </c>
       <c r="F6" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="G6" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="H6" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="I6" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="J6" t="n">
-        <v>100.2154141238116</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="K6" t="n">
-        <v>100.2154141238116</v>
+        <v>269.451820150894</v>
       </c>
       <c r="L6" t="n">
-        <v>466.0372592939272</v>
+        <v>635.2736653210097</v>
       </c>
       <c r="M6" t="n">
-        <v>951.0706128041536</v>
+        <v>1120.307018831236</v>
       </c>
       <c r="N6" t="n">
-        <v>1445.591299239133</v>
+        <v>1605.863428751119</v>
       </c>
       <c r="O6" t="n">
-        <v>1837.791250023284</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="P6" t="n">
-        <v>1840.291749749677</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="Q6" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="R6" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="S6" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.06337953527</v>
       </c>
       <c r="T6" t="n">
-        <v>1809.378275701256</v>
+        <v>1860.289426326727</v>
       </c>
       <c r="U6" t="n">
-        <v>1590.883483299566</v>
+        <v>1641.794633925037</v>
       </c>
       <c r="V6" t="n">
-        <v>1362.4878607479</v>
+        <v>1413.399011373371</v>
       </c>
       <c r="W6" t="n">
-        <v>1121.17199198121</v>
+        <v>1172.083142606681</v>
       </c>
       <c r="X6" t="n">
-        <v>923.2550038590049</v>
+        <v>974.1661544844752</v>
       </c>
       <c r="Y6" t="n">
-        <v>730.7336775085837</v>
+        <v>781.644828134054</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.96126759070542</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="C7" t="n">
-        <v>39.96126759070542</v>
+        <v>497.5228299758468</v>
       </c>
       <c r="D7" t="n">
-        <v>39.96126759070542</v>
+        <v>344.4509368036095</v>
       </c>
       <c r="E7" t="n">
-        <v>39.96126759070542</v>
+        <v>192.4419225649283</v>
       </c>
       <c r="F7" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="G7" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="H7" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="I7" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="J7" t="n">
-        <v>39.96126759070542</v>
+        <v>39.9612675907054</v>
       </c>
       <c r="K7" t="n">
-        <v>73.56545533534883</v>
+        <v>73.56545533534882</v>
       </c>
       <c r="L7" t="n">
         <v>174.1725347356083</v>
@@ -4759,16 +4759,16 @@
         <v>572.0205128366379</v>
       </c>
       <c r="V7" t="n">
-        <v>548.1528278810292</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="W7" t="n">
-        <v>261.9964263984284</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="X7" t="n">
-        <v>261.9964263984284</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="Y7" t="n">
-        <v>39.96126759070542</v>
+        <v>572.0205128366379</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>446.1323839232255</v>
+        <v>1104.336128603603</v>
       </c>
       <c r="C8" t="n">
-        <v>64.19862525603281</v>
+        <v>1104.336128603603</v>
       </c>
       <c r="D8" t="n">
-        <v>64.19862525603281</v>
+        <v>1104.336128603603</v>
       </c>
       <c r="E8" t="n">
-        <v>64.19862525603281</v>
+        <v>1104.336128603603</v>
       </c>
       <c r="F8" t="n">
-        <v>54.08783860660719</v>
+        <v>690.1849379137734</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>274.0809513679614</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4832,22 +4832,22 @@
         <v>1823.345543186168</v>
       </c>
       <c r="T8" t="n">
-        <v>1598.98659691718</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U8" t="n">
-        <v>1344.101260631174</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V8" t="n">
-        <v>1007.121986527115</v>
+        <v>1486.36626908211</v>
       </c>
       <c r="W8" t="n">
-        <v>644.5870563847161</v>
+        <v>1486.36626908211</v>
       </c>
       <c r="X8" t="n">
-        <v>644.5870563847161</v>
+        <v>1104.336128603603</v>
       </c>
       <c r="Y8" t="n">
-        <v>644.5870563847161</v>
+        <v>1104.336128603603</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>557.9768611231002</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C9" t="n">
-        <v>396.2731883640549</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D9" t="n">
-        <v>257.434551354267</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>110.4065414111382</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>110.4065414111382</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>110.4065414111382</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
         <v>110.4065414111382</v>
@@ -4881,52 +4881,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L9" t="n">
-        <v>468.100247804421</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8796590913968</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y9" t="n">
-        <v>717.396303904361</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>364.7121188117562</v>
+        <v>516.7211330504374</v>
       </c>
       <c r="C10" t="n">
-        <v>195.0961492734365</v>
+        <v>347.1051635121177</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119923</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="E10" t="n">
         <v>42.02425610119923</v>
@@ -5005,7 +5005,7 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>364.7121188117562</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1205.940347378121</v>
+        <v>1428.356075765904</v>
       </c>
       <c r="C11" t="n">
-        <v>1205.940347378121</v>
+        <v>1428.356075765904</v>
       </c>
       <c r="D11" t="n">
-        <v>943.5219286202523</v>
+        <v>1165.937657008035</v>
       </c>
       <c r="E11" t="n">
-        <v>659.1417547412666</v>
+        <v>881.5574831290496</v>
       </c>
       <c r="F11" t="n">
-        <v>355.3961100663444</v>
+        <v>577.8118384541275</v>
       </c>
       <c r="G11" t="n">
-        <v>49.69766953543986</v>
+        <v>272.1133979232231</v>
       </c>
       <c r="H11" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="I11" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="J11" t="n">
-        <v>153.6941540919069</v>
+        <v>229.9046894574563</v>
       </c>
       <c r="K11" t="n">
-        <v>393.8345261366897</v>
+        <v>578.2535371514499</v>
       </c>
       <c r="L11" t="n">
-        <v>849.9283748708467</v>
+        <v>1034.347385885607</v>
       </c>
       <c r="M11" t="n">
-        <v>1243.167541123935</v>
+        <v>1459.584492422355</v>
       </c>
       <c r="N11" t="n">
-        <v>1621.49889981165</v>
+        <v>1837.91585111007</v>
       </c>
       <c r="O11" t="n">
-        <v>2034.711959933695</v>
+        <v>2142.920435582904</v>
       </c>
       <c r="P11" t="n">
-        <v>2371.077332038959</v>
+        <v>2371.077332038958</v>
       </c>
       <c r="Q11" t="n">
-        <v>2465.509585725496</v>
+        <v>2465.509585725495</v>
       </c>
       <c r="R11" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.883476771991</v>
       </c>
       <c r="S11" t="n">
-        <v>2408.060047417254</v>
+        <v>2484.883476771991</v>
       </c>
       <c r="T11" t="n">
-        <v>2294.106647163173</v>
+        <v>2484.883476771991</v>
       </c>
       <c r="U11" t="n">
-        <v>2149.626856892075</v>
+        <v>2484.883476771991</v>
       </c>
       <c r="V11" t="n">
-        <v>1923.053128802923</v>
+        <v>2258.30974868284</v>
       </c>
       <c r="W11" t="n">
-        <v>1923.053128802923</v>
+        <v>2006.180364555349</v>
       </c>
       <c r="X11" t="n">
-        <v>1772.714650290488</v>
+        <v>1734.555770091749</v>
       </c>
       <c r="Y11" t="n">
-        <v>1489.578340881233</v>
+        <v>1451.419460682495</v>
       </c>
     </row>
     <row r="12">
@@ -5112,40 +5112,40 @@
         <v>218.0178122986808</v>
       </c>
       <c r="H12" t="n">
-        <v>118.0799548453789</v>
+        <v>118.0799548453788</v>
       </c>
       <c r="I12" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="J12" t="n">
-        <v>109.951816068546</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="K12" t="n">
-        <v>270.6951321230865</v>
+        <v>279.1882220956285</v>
       </c>
       <c r="L12" t="n">
-        <v>636.5169772932021</v>
+        <v>645.0100672657441</v>
       </c>
       <c r="M12" t="n">
-        <v>1121.550330803429</v>
+        <v>1130.04342077597</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.815976926551</v>
+        <v>1641.309066899093</v>
       </c>
       <c r="O12" t="n">
-        <v>2025.015927710701</v>
+        <v>2033.509017683243</v>
       </c>
       <c r="P12" t="n">
-        <v>2327.111846986399</v>
+        <v>2335.604936958941</v>
       </c>
       <c r="Q12" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.883476771991</v>
       </c>
       <c r="R12" t="n">
-        <v>2425.099207866938</v>
+        <v>2484.883476771991</v>
       </c>
       <c r="S12" t="n">
-        <v>2272.299720879679</v>
+        <v>2355.759574845432</v>
       </c>
       <c r="T12" t="n">
         <v>2167.074471011417</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>334.9283493809728</v>
+        <v>342.7343192223321</v>
       </c>
       <c r="C13" t="n">
-        <v>275.7179258575605</v>
+        <v>283.5238956989199</v>
       </c>
       <c r="D13" t="n">
-        <v>233.0515787002307</v>
+        <v>240.8575485415902</v>
       </c>
       <c r="E13" t="n">
-        <v>233.0515787002307</v>
+        <v>199.2540803178165</v>
       </c>
       <c r="F13" t="n">
-        <v>190.9764697409153</v>
+        <v>157.178971358501</v>
       </c>
       <c r="G13" t="n">
-        <v>132.4622671236727</v>
+        <v>98.66476874125851</v>
       </c>
       <c r="H13" t="n">
-        <v>83.49516791785392</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="I13" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="J13" t="n">
         <v>99.0440456466813</v>
       </c>
       <c r="K13" t="n">
-        <v>240.8567090405355</v>
+        <v>240.8567090405356</v>
       </c>
       <c r="L13" t="n">
-        <v>449.6722640900057</v>
+        <v>449.6722640900059</v>
       </c>
       <c r="M13" t="n">
-        <v>675.8742458668182</v>
+        <v>675.8742458668185</v>
       </c>
       <c r="N13" t="n">
-        <v>902.5050632656294</v>
+        <v>902.5050632656297</v>
       </c>
       <c r="O13" t="n">
         <v>1109.17718541053</v>
       </c>
       <c r="P13" t="n">
-        <v>1280.354144787878</v>
+        <v>1280.354144787879</v>
       </c>
       <c r="Q13" t="n">
         <v>1350.79217218357</v>
       </c>
       <c r="R13" t="n">
-        <v>1311.675936812855</v>
+        <v>1311.675936812856</v>
       </c>
       <c r="S13" t="n">
-        <v>1208.37172023145</v>
+        <v>1208.371720231451</v>
       </c>
       <c r="T13" t="n">
-        <v>1085.598313062037</v>
+        <v>1085.598313062038</v>
       </c>
       <c r="U13" t="n">
-        <v>908.8136195660438</v>
+        <v>908.8136195660447</v>
       </c>
       <c r="V13" t="n">
-        <v>758.4838611393739</v>
+        <v>758.4838611393756</v>
       </c>
       <c r="W13" t="n">
-        <v>582.7330056716804</v>
+        <v>648.3606727743366</v>
       </c>
       <c r="X13" t="n">
-        <v>461.8860875819636</v>
+        <v>527.5137546846199</v>
       </c>
       <c r="Y13" t="n">
-        <v>408.0781720504452</v>
+        <v>415.8841418918045</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1699.88428841819</v>
+        <v>1762.295941194486</v>
       </c>
       <c r="C14" t="n">
-        <v>1428.356075765905</v>
+        <v>1490.767728542201</v>
       </c>
       <c r="D14" t="n">
-        <v>1165.937657008036</v>
+        <v>1228.349309784332</v>
       </c>
       <c r="E14" t="n">
-        <v>881.55748312905</v>
+        <v>943.9691359053463</v>
       </c>
       <c r="F14" t="n">
-        <v>577.8118384541277</v>
+        <v>640.2234912304241</v>
       </c>
       <c r="G14" t="n">
-        <v>272.1133979232231</v>
+        <v>334.5250506995196</v>
       </c>
       <c r="H14" t="n">
-        <v>49.69766953543986</v>
+        <v>112.1093223117363</v>
       </c>
       <c r="I14" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="J14" t="n">
-        <v>121.6962138082455</v>
+        <v>229.9046894574563</v>
       </c>
       <c r="K14" t="n">
-        <v>361.8365858530283</v>
+        <v>470.045061502239</v>
       </c>
       <c r="L14" t="n">
-        <v>709.7219589379745</v>
+        <v>849.9283748708451</v>
       </c>
       <c r="M14" t="n">
-        <v>1211.169600840273</v>
+        <v>1351.376016773144</v>
       </c>
       <c r="N14" t="n">
-        <v>1589.500959527989</v>
+        <v>1729.70737546086</v>
       </c>
       <c r="O14" t="n">
-        <v>2002.714019650034</v>
+        <v>2034.711959933693</v>
       </c>
       <c r="P14" t="n">
-        <v>2339.079391755297</v>
+        <v>2371.077332038958</v>
       </c>
       <c r="Q14" t="n">
-        <v>2465.509585725496</v>
+        <v>2465.509585725495</v>
       </c>
       <c r="R14" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.883476771991</v>
       </c>
       <c r="S14" t="n">
-        <v>2408.060047417254</v>
+        <v>2408.060047417253</v>
       </c>
       <c r="T14" t="n">
-        <v>2294.106647163173</v>
+        <v>2294.106647163172</v>
       </c>
       <c r="U14" t="n">
-        <v>2294.106647163173</v>
+        <v>2149.626856892073</v>
       </c>
       <c r="V14" t="n">
-        <v>2266.658591330556</v>
+        <v>2149.626856892073</v>
       </c>
       <c r="W14" t="n">
-        <v>2266.658591330556</v>
+        <v>2033.920535658085</v>
       </c>
       <c r="X14" t="n">
-        <v>2266.658591330556</v>
+        <v>1762.295941194486</v>
       </c>
       <c r="Y14" t="n">
-        <v>1983.522281921302</v>
+        <v>1762.295941194486</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>845.5505760717306</v>
+        <v>845.5505760717292</v>
       </c>
       <c r="C15" t="n">
-        <v>767.3067572784386</v>
+        <v>683.8469033126839</v>
       </c>
       <c r="D15" t="n">
-        <v>628.4681202686506</v>
+        <v>545.008266302896</v>
       </c>
       <c r="E15" t="n">
-        <v>481.4401103255219</v>
+        <v>397.9802563597672</v>
       </c>
       <c r="F15" t="n">
         <v>346.7463122753962</v>
@@ -5349,58 +5349,58 @@
         <v>218.0178122986808</v>
       </c>
       <c r="H15" t="n">
-        <v>118.0799548453789</v>
+        <v>118.0799548453788</v>
       </c>
       <c r="I15" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="J15" t="n">
-        <v>109.951816068546</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4423686287347</v>
+        <v>279.1882220956285</v>
       </c>
       <c r="L15" t="n">
-        <v>705.2642137988503</v>
+        <v>645.0100672657441</v>
       </c>
       <c r="M15" t="n">
-        <v>1190.297567309077</v>
+        <v>1130.04342077597</v>
       </c>
       <c r="N15" t="n">
-        <v>1701.563213432199</v>
+        <v>1641.309066899093</v>
       </c>
       <c r="O15" t="n">
-        <v>2093.76316421635</v>
+        <v>2033.509017683243</v>
       </c>
       <c r="P15" t="n">
-        <v>2395.859083492047</v>
+        <v>2335.604936958941</v>
       </c>
       <c r="Q15" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.883476771991</v>
       </c>
       <c r="R15" t="n">
-        <v>2425.099207866938</v>
+        <v>2425.099207866937</v>
       </c>
       <c r="S15" t="n">
-        <v>2272.299720879679</v>
+        <v>2272.299720879677</v>
       </c>
       <c r="T15" t="n">
-        <v>2083.614617045664</v>
+        <v>2083.614617045663</v>
       </c>
       <c r="U15" t="n">
-        <v>1865.119824643974</v>
+        <v>1865.119824643973</v>
       </c>
       <c r="V15" t="n">
-        <v>1636.724202092308</v>
+        <v>1636.724202092307</v>
       </c>
       <c r="W15" t="n">
-        <v>1395.408333325618</v>
+        <v>1395.408333325617</v>
       </c>
       <c r="X15" t="n">
-        <v>1197.491345203413</v>
+        <v>1197.491345203411</v>
       </c>
       <c r="Y15" t="n">
-        <v>1004.970018852992</v>
+        <v>1004.97001885299</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>277.1066521196757</v>
+        <v>277.1066521196776</v>
       </c>
       <c r="C16" t="n">
-        <v>217.8962285962633</v>
+        <v>217.8962285962655</v>
       </c>
       <c r="D16" t="n">
-        <v>175.2298814389335</v>
+        <v>175.229881438936</v>
       </c>
       <c r="E16" t="n">
-        <v>133.6264132151598</v>
+        <v>133.626413215162</v>
       </c>
       <c r="F16" t="n">
-        <v>91.55130425584339</v>
+        <v>133.626413215162</v>
       </c>
       <c r="G16" t="n">
-        <v>49.69766953543986</v>
+        <v>75.11221059791956</v>
       </c>
       <c r="H16" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="I16" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="J16" t="n">
-        <v>99.0440456466813</v>
+        <v>99.04404564668135</v>
       </c>
       <c r="K16" t="n">
-        <v>240.8567090405355</v>
+        <v>240.8567090405356</v>
       </c>
       <c r="L16" t="n">
-        <v>449.6722640900057</v>
+        <v>449.6722640900059</v>
       </c>
       <c r="M16" t="n">
-        <v>675.8742458668182</v>
+        <v>675.8742458668185</v>
       </c>
       <c r="N16" t="n">
-        <v>902.5050632656294</v>
+        <v>902.5050632656298</v>
       </c>
       <c r="O16" t="n">
         <v>1109.17718541053</v>
       </c>
       <c r="P16" t="n">
-        <v>1280.354144787878</v>
+        <v>1280.354144787879</v>
       </c>
       <c r="Q16" t="n">
-        <v>1350.79217218357</v>
+        <v>1350.792172183571</v>
       </c>
       <c r="R16" t="n">
-        <v>1311.675936812855</v>
+        <v>1311.675936812856</v>
       </c>
       <c r="S16" t="n">
-        <v>1208.37172023145</v>
+        <v>1208.371720231451</v>
       </c>
       <c r="T16" t="n">
-        <v>1085.598313062037</v>
+        <v>1085.598313062038</v>
       </c>
       <c r="U16" t="n">
-        <v>908.8136195660438</v>
+        <v>908.8136195660452</v>
       </c>
       <c r="V16" t="n">
-        <v>758.4838611393737</v>
+        <v>758.4838611393752</v>
       </c>
       <c r="W16" t="n">
-        <v>582.7330056716803</v>
+        <v>582.7330056716819</v>
       </c>
       <c r="X16" t="n">
-        <v>461.8860875819636</v>
+        <v>461.8860875819652</v>
       </c>
       <c r="Y16" t="n">
-        <v>350.2564747891481</v>
+        <v>350.2564747891499</v>
       </c>
     </row>
     <row r="17">
@@ -5489,58 +5489,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1328.402764043477</v>
+        <v>1328.402764043476</v>
       </c>
       <c r="C17" t="n">
-        <v>1118.859290984193</v>
+        <v>1118.859290984192</v>
       </c>
       <c r="D17" t="n">
-        <v>918.4256118193257</v>
+        <v>918.4256118193247</v>
       </c>
       <c r="E17" t="n">
-        <v>696.0301775333414</v>
+        <v>696.0301775333404</v>
       </c>
       <c r="F17" t="n">
-        <v>454.2692724514206</v>
+        <v>454.2692724514196</v>
       </c>
       <c r="G17" t="n">
-        <v>210.5555715135174</v>
+        <v>210.5555715135165</v>
       </c>
       <c r="H17" t="n">
-        <v>50.12458271873499</v>
+        <v>50.12458271873493</v>
       </c>
       <c r="I17" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="J17" t="n">
-        <v>290.6559327325569</v>
+        <v>248.608618840126</v>
       </c>
       <c r="K17" t="n">
-        <v>699.7560237016512</v>
+        <v>488.7489908849088</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.641396786597</v>
+        <v>836.634363969855</v>
       </c>
       <c r="M17" t="n">
-        <v>1440.880563039685</v>
+        <v>1229.873530222943</v>
       </c>
       <c r="N17" t="n">
-        <v>1819.211921727401</v>
+        <v>1608.204888910659</v>
       </c>
       <c r="O17" t="n">
-        <v>2124.216506200235</v>
+        <v>1913.209473383492</v>
       </c>
       <c r="P17" t="n">
-        <v>2390.451223085456</v>
+        <v>2310.326088763857</v>
       </c>
       <c r="Q17" t="n">
-        <v>2484.883476771993</v>
+        <v>2404.758342450394</v>
       </c>
       <c r="R17" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.883476771991</v>
       </c>
       <c r="S17" t="n">
-        <v>2470.044787010255</v>
+        <v>2470.044787010254</v>
       </c>
       <c r="T17" t="n">
         <v>2418.076126349175</v>
@@ -5549,16 +5549,16 @@
         <v>2335.581075671078</v>
       </c>
       <c r="V17" t="n">
-        <v>2170.992087174929</v>
+        <v>2170.992087174928</v>
       </c>
       <c r="W17" t="n">
         <v>1980.847442640438</v>
       </c>
       <c r="X17" t="n">
-        <v>1771.207587769841</v>
+        <v>1771.20758776984</v>
       </c>
       <c r="Y17" t="n">
-        <v>1550.056017953587</v>
+        <v>1550.056017953586</v>
       </c>
     </row>
     <row r="18">
@@ -5586,16 +5586,16 @@
         <v>218.0178122986808</v>
       </c>
       <c r="H18" t="n">
-        <v>118.0799548453789</v>
+        <v>118.0799548453788</v>
       </c>
       <c r="I18" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="J18" t="n">
         <v>109.951816068546</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4423686287347</v>
+        <v>339.4423686287346</v>
       </c>
       <c r="L18" t="n">
         <v>705.2642137988503</v>
@@ -5613,31 +5613,31 @@
         <v>2395.859083492047</v>
       </c>
       <c r="Q18" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.883476771991</v>
       </c>
       <c r="R18" t="n">
-        <v>2425.099207866938</v>
+        <v>2484.883476771991</v>
       </c>
       <c r="S18" t="n">
-        <v>2272.299720879679</v>
+        <v>2355.759574845432</v>
       </c>
       <c r="T18" t="n">
-        <v>2083.614617045664</v>
+        <v>2167.074471011417</v>
       </c>
       <c r="U18" t="n">
-        <v>1865.119824643974</v>
+        <v>1948.579678609727</v>
       </c>
       <c r="V18" t="n">
-        <v>1636.724202092308</v>
+        <v>1720.184056058061</v>
       </c>
       <c r="W18" t="n">
-        <v>1395.408333325618</v>
+        <v>1478.868187291371</v>
       </c>
       <c r="X18" t="n">
-        <v>1197.491345203413</v>
+        <v>1280.951199169166</v>
       </c>
       <c r="Y18" t="n">
-        <v>1004.970018852992</v>
+        <v>1088.429872818745</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="C19" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="D19" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="E19" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="F19" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="G19" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="H19" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="I19" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="J19" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="K19" t="n">
-        <v>83.30185728008327</v>
+        <v>83.30185728008324</v>
       </c>
       <c r="L19" t="n">
-        <v>183.9089366803428</v>
+        <v>183.9089366803427</v>
       </c>
       <c r="M19" t="n">
         <v>301.9024428079445</v>
       </c>
       <c r="N19" t="n">
-        <v>420.3247845575449</v>
+        <v>420.3247845575448</v>
       </c>
       <c r="O19" t="n">
-        <v>518.7884310532346</v>
+        <v>518.7884310532345</v>
       </c>
       <c r="P19" t="n">
-        <v>581.7569147813724</v>
+        <v>581.7569147813723</v>
       </c>
       <c r="Q19" t="n">
-        <v>588.3890374846081</v>
+        <v>581.7569147813723</v>
       </c>
       <c r="R19" t="n">
-        <v>588.3890374846081</v>
+        <v>588.3890374846078</v>
       </c>
       <c r="S19" t="n">
-        <v>547.0695604962045</v>
+        <v>547.0695604962042</v>
       </c>
       <c r="T19" t="n">
-        <v>486.2808929197922</v>
+        <v>486.2808929197919</v>
       </c>
       <c r="U19" t="n">
-        <v>371.4809390168009</v>
+        <v>371.4809390168007</v>
       </c>
       <c r="V19" t="n">
-        <v>283.1359201831323</v>
+        <v>283.1359201831322</v>
       </c>
       <c r="W19" t="n">
-        <v>169.3698043084403</v>
+        <v>169.3698043084402</v>
       </c>
       <c r="X19" t="n">
-        <v>110.5076258117249</v>
+        <v>110.5076258117248</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.86275261191083</v>
+        <v>60.86275261191077</v>
       </c>
     </row>
     <row r="20">
@@ -5732,52 +5732,52 @@
         <v>1118.859290984193</v>
       </c>
       <c r="D20" t="n">
-        <v>918.4256118193252</v>
+        <v>918.425611819325</v>
       </c>
       <c r="E20" t="n">
-        <v>696.0301775333409</v>
+        <v>696.0301775333407</v>
       </c>
       <c r="F20" t="n">
-        <v>454.26927245142</v>
+        <v>454.2692724514201</v>
       </c>
       <c r="G20" t="n">
-        <v>210.5555715135169</v>
+        <v>210.555571513517</v>
       </c>
       <c r="H20" t="n">
-        <v>50.12458271873502</v>
+        <v>50.12458271873488</v>
       </c>
       <c r="I20" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="J20" t="n">
-        <v>121.6962138082455</v>
+        <v>290.655932732557</v>
       </c>
       <c r="K20" t="n">
-        <v>361.8365858530283</v>
+        <v>530.7963047773397</v>
       </c>
       <c r="L20" t="n">
-        <v>836.6343639698564</v>
+        <v>878.6816778622861</v>
       </c>
       <c r="M20" t="n">
-        <v>1229.873530222944</v>
+        <v>1440.880563039686</v>
       </c>
       <c r="N20" t="n">
-        <v>1608.20488891066</v>
+        <v>1857.289742156567</v>
       </c>
       <c r="O20" t="n">
-        <v>1913.209473383494</v>
+        <v>2162.294326629401</v>
       </c>
       <c r="P20" t="n">
-        <v>2310.326088763858</v>
+        <v>2390.451223085454</v>
       </c>
       <c r="Q20" t="n">
-        <v>2404.758342450396</v>
+        <v>2484.883476771991</v>
       </c>
       <c r="R20" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.883476771991</v>
       </c>
       <c r="S20" t="n">
-        <v>2470.044787010255</v>
+        <v>2470.044787010254</v>
       </c>
       <c r="T20" t="n">
         <v>2418.076126349175</v>
@@ -5786,13 +5786,13 @@
         <v>2335.581075671078</v>
       </c>
       <c r="V20" t="n">
-        <v>2170.992087174929</v>
+        <v>2170.992087174928</v>
       </c>
       <c r="W20" t="n">
         <v>1980.847442640438</v>
       </c>
       <c r="X20" t="n">
-        <v>1771.207587769841</v>
+        <v>1771.20758776984</v>
       </c>
       <c r="Y20" t="n">
         <v>1550.056017953587</v>
@@ -5823,40 +5823,40 @@
         <v>218.0178122986808</v>
       </c>
       <c r="H21" t="n">
-        <v>118.0799548453789</v>
+        <v>118.0799548453788</v>
       </c>
       <c r="I21" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="J21" t="n">
-        <v>109.951816068546</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="K21" t="n">
-        <v>339.4423686287347</v>
+        <v>279.1882220956285</v>
       </c>
       <c r="L21" t="n">
-        <v>705.2642137988503</v>
+        <v>645.0100672657441</v>
       </c>
       <c r="M21" t="n">
-        <v>1190.297567309077</v>
+        <v>1130.04342077597</v>
       </c>
       <c r="N21" t="n">
-        <v>1701.563213432199</v>
+        <v>1641.309066899093</v>
       </c>
       <c r="O21" t="n">
-        <v>2093.76316421635</v>
+        <v>2025.0159277107</v>
       </c>
       <c r="P21" t="n">
-        <v>2395.859083492047</v>
+        <v>2327.111846986397</v>
       </c>
       <c r="Q21" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.883476771991</v>
       </c>
       <c r="R21" t="n">
-        <v>2425.099207866938</v>
+        <v>2484.883476771991</v>
       </c>
       <c r="S21" t="n">
-        <v>2272.299720879679</v>
+        <v>2355.759574845432</v>
       </c>
       <c r="T21" t="n">
         <v>2167.074471011417</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="C22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="D22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="E22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="F22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="G22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="H22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="I22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="J22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="K22" t="n">
-        <v>83.30185728008327</v>
+        <v>83.30185728008324</v>
       </c>
       <c r="L22" t="n">
-        <v>183.9089366803428</v>
+        <v>183.9089366803427</v>
       </c>
       <c r="M22" t="n">
         <v>301.9024428079445</v>
       </c>
       <c r="N22" t="n">
-        <v>426.9569072607808</v>
+        <v>420.3247845575448</v>
       </c>
       <c r="O22" t="n">
-        <v>525.4205537564704</v>
+        <v>525.4205537564695</v>
       </c>
       <c r="P22" t="n">
-        <v>588.3890374846083</v>
+        <v>588.3890374846073</v>
       </c>
       <c r="Q22" t="n">
-        <v>588.3890374846083</v>
+        <v>588.3890374846073</v>
       </c>
       <c r="R22" t="n">
-        <v>588.3890374846083</v>
+        <v>588.3890374846073</v>
       </c>
       <c r="S22" t="n">
-        <v>547.0695604962046</v>
+        <v>547.0695604962038</v>
       </c>
       <c r="T22" t="n">
-        <v>486.2808929197923</v>
+        <v>486.2808929197916</v>
       </c>
       <c r="U22" t="n">
-        <v>371.480939016801</v>
+        <v>371.4809390168004</v>
       </c>
       <c r="V22" t="n">
-        <v>283.1359201831324</v>
+        <v>283.1359201831319</v>
       </c>
       <c r="W22" t="n">
-        <v>169.3698043084404</v>
+        <v>169.36980430844</v>
       </c>
       <c r="X22" t="n">
-        <v>110.5076258117249</v>
+        <v>110.5076258117247</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.86275261191086</v>
+        <v>60.86275261191071</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1328.402764043477</v>
+        <v>1328.402764043476</v>
       </c>
       <c r="C23" t="n">
-        <v>1118.859290984193</v>
+        <v>1118.859290984192</v>
       </c>
       <c r="D23" t="n">
-        <v>918.4256118193252</v>
+        <v>918.4256118193248</v>
       </c>
       <c r="E23" t="n">
-        <v>696.0301775333409</v>
+        <v>696.0301775333405</v>
       </c>
       <c r="F23" t="n">
-        <v>454.26927245142</v>
+        <v>454.2692724514199</v>
       </c>
       <c r="G23" t="n">
-        <v>210.555571513517</v>
+        <v>210.5555715135167</v>
       </c>
       <c r="H23" t="n">
-        <v>50.12458271873503</v>
+        <v>50.12458271873486</v>
       </c>
       <c r="I23" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543981</v>
       </c>
       <c r="J23" t="n">
-        <v>121.6962138082455</v>
+        <v>290.655932732557</v>
       </c>
       <c r="K23" t="n">
-        <v>361.8365858530283</v>
+        <v>657.7087098092193</v>
       </c>
       <c r="L23" t="n">
-        <v>709.7219589379745</v>
+        <v>1005.594082894165</v>
       </c>
       <c r="M23" t="n">
-        <v>1102.961125191062</v>
+        <v>1398.833249147253</v>
       </c>
       <c r="N23" t="n">
-        <v>1650.252202803089</v>
+        <v>1777.164607834969</v>
       </c>
       <c r="O23" t="n">
-        <v>1955.256787275923</v>
+        <v>2082.169192307803</v>
       </c>
       <c r="P23" t="n">
-        <v>2183.413683731977</v>
+        <v>2310.326088763856</v>
       </c>
       <c r="Q23" t="n">
-        <v>2446.805656342825</v>
+        <v>2404.758342450393</v>
       </c>
       <c r="R23" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.88347677199</v>
       </c>
       <c r="S23" t="n">
-        <v>2470.044787010256</v>
+        <v>2470.044787010253</v>
       </c>
       <c r="T23" t="n">
-        <v>2418.076126349176</v>
+        <v>2418.076126349174</v>
       </c>
       <c r="U23" t="n">
-        <v>2335.581075671078</v>
+        <v>2335.581075671077</v>
       </c>
       <c r="V23" t="n">
-        <v>2170.992087174928</v>
+        <v>2170.992087174927</v>
       </c>
       <c r="W23" t="n">
-        <v>1980.847442640438</v>
+        <v>1980.847442640437</v>
       </c>
       <c r="X23" t="n">
-        <v>1771.207587769841</v>
+        <v>1771.207587769839</v>
       </c>
       <c r="Y23" t="n">
-        <v>1550.056017953587</v>
+        <v>1550.056017953586</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>929.0104300374838</v>
+        <v>845.5505760717283</v>
       </c>
       <c r="C24" t="n">
-        <v>767.3067572784386</v>
+        <v>683.846903312683</v>
       </c>
       <c r="D24" t="n">
-        <v>628.4681202686506</v>
+        <v>545.0082663028951</v>
       </c>
       <c r="E24" t="n">
-        <v>481.4401103255219</v>
+        <v>397.9802563597663</v>
       </c>
       <c r="F24" t="n">
-        <v>346.7463122753962</v>
+        <v>263.2864583096407</v>
       </c>
       <c r="G24" t="n">
         <v>218.0178122986808</v>
       </c>
       <c r="H24" t="n">
-        <v>118.0799548453789</v>
+        <v>118.0799548453788</v>
       </c>
       <c r="I24" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543981</v>
       </c>
       <c r="J24" t="n">
-        <v>109.951816068546</v>
+        <v>49.69766953543981</v>
       </c>
       <c r="K24" t="n">
-        <v>339.4423686287347</v>
+        <v>279.1882220956285</v>
       </c>
       <c r="L24" t="n">
-        <v>705.2642137988503</v>
+        <v>645.0100672657441</v>
       </c>
       <c r="M24" t="n">
-        <v>1190.297567309077</v>
+        <v>1130.04342077597</v>
       </c>
       <c r="N24" t="n">
-        <v>1701.563213432199</v>
+        <v>1641.309066899093</v>
       </c>
       <c r="O24" t="n">
-        <v>2093.76316421635</v>
+        <v>2033.509017683243</v>
       </c>
       <c r="P24" t="n">
-        <v>2395.859083492047</v>
+        <v>2335.604936958941</v>
       </c>
       <c r="Q24" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.88347677199</v>
       </c>
       <c r="R24" t="n">
-        <v>2425.099207866939</v>
+        <v>2425.099207866936</v>
       </c>
       <c r="S24" t="n">
-        <v>2272.299720879679</v>
+        <v>2272.299720879676</v>
       </c>
       <c r="T24" t="n">
-        <v>2083.614617045665</v>
+        <v>2083.614617045662</v>
       </c>
       <c r="U24" t="n">
-        <v>1865.119824643975</v>
+        <v>1865.119824643972</v>
       </c>
       <c r="V24" t="n">
-        <v>1636.724202092309</v>
+        <v>1636.724202092306</v>
       </c>
       <c r="W24" t="n">
-        <v>1395.408333325619</v>
+        <v>1395.408333325616</v>
       </c>
       <c r="X24" t="n">
-        <v>1280.951199169166</v>
+        <v>1197.49134520341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1088.429872818745</v>
+        <v>1004.970018852989</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543981</v>
       </c>
       <c r="C25" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543981</v>
       </c>
       <c r="D25" t="n">
-        <v>49.69766953543986</v>
+        <v>56.32979223867484</v>
       </c>
       <c r="E25" t="n">
-        <v>49.69766953543986</v>
+        <v>56.32979223867484</v>
       </c>
       <c r="F25" t="n">
-        <v>49.69766953543986</v>
+        <v>56.32979223867484</v>
       </c>
       <c r="G25" t="n">
-        <v>49.69766953543986</v>
+        <v>56.32979223867484</v>
       </c>
       <c r="H25" t="n">
-        <v>49.69766953543986</v>
+        <v>56.32979223867484</v>
       </c>
       <c r="I25" t="n">
-        <v>49.69766953543986</v>
+        <v>56.32979223867484</v>
       </c>
       <c r="J25" t="n">
-        <v>49.69766953543986</v>
+        <v>56.32979223867484</v>
       </c>
       <c r="K25" t="n">
-        <v>83.30185728008328</v>
+        <v>89.93397998331825</v>
       </c>
       <c r="L25" t="n">
-        <v>183.9089366803428</v>
+        <v>190.5410593835778</v>
       </c>
       <c r="M25" t="n">
-        <v>308.5345655111804</v>
+        <v>308.5345655111795</v>
       </c>
       <c r="N25" t="n">
-        <v>426.9569072607808</v>
+        <v>426.9569072607799</v>
       </c>
       <c r="O25" t="n">
-        <v>525.4205537564704</v>
+        <v>525.4205537564695</v>
       </c>
       <c r="P25" t="n">
-        <v>588.3890374846083</v>
+        <v>588.3890374846073</v>
       </c>
       <c r="Q25" t="n">
-        <v>588.3890374846083</v>
+        <v>588.3890374846073</v>
       </c>
       <c r="R25" t="n">
-        <v>588.3890374846083</v>
+        <v>588.3890374846073</v>
       </c>
       <c r="S25" t="n">
-        <v>547.0695604962046</v>
+        <v>547.0695604962038</v>
       </c>
       <c r="T25" t="n">
-        <v>486.2808929197923</v>
+        <v>486.2808929197916</v>
       </c>
       <c r="U25" t="n">
-        <v>371.480939016801</v>
+        <v>371.4809390168004</v>
       </c>
       <c r="V25" t="n">
-        <v>283.1359201831324</v>
+        <v>283.1359201831319</v>
       </c>
       <c r="W25" t="n">
-        <v>169.3698043084404</v>
+        <v>169.36980430844</v>
       </c>
       <c r="X25" t="n">
-        <v>110.5076258117249</v>
+        <v>110.5076258117247</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.86275261191086</v>
+        <v>60.86275261191069</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1686.001422744417</v>
+        <v>1670.817221181985</v>
       </c>
       <c r="C26" t="n">
-        <v>1418.64358883299</v>
+        <v>1403.459387270559</v>
       </c>
       <c r="D26" t="n">
-        <v>1160.39554881598</v>
+        <v>1218.636822851418</v>
       </c>
       <c r="E26" t="n">
-        <v>880.1857536778534</v>
+        <v>938.4270277132912</v>
       </c>
       <c r="F26" t="n">
-        <v>580.6104877437901</v>
+        <v>638.8517617792279</v>
       </c>
       <c r="G26" t="n">
-        <v>279.0824259537445</v>
+        <v>337.3236999891823</v>
       </c>
       <c r="H26" t="n">
-        <v>60.83707630682016</v>
+        <v>119.0783503422579</v>
       </c>
       <c r="I26" t="n">
-        <v>60.83707630682016</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="J26" t="n">
         <v>245.1314844327526</v>
@@ -6230,22 +6230,22 @@
         <v>597.5677203306618</v>
       </c>
       <c r="L26" t="n">
-        <v>1057.748957268734</v>
+        <v>1057.748957268735</v>
       </c>
       <c r="M26" t="n">
         <v>1563.283987374949</v>
       </c>
       <c r="N26" t="n">
-        <v>2053.911209915791</v>
+        <v>2053.911209915792</v>
       </c>
       <c r="O26" t="n">
-        <v>2471.211658241752</v>
+        <v>2471.211658241753</v>
       </c>
       <c r="P26" t="n">
         <v>2811.664418550932</v>
       </c>
       <c r="Q26" t="n">
-        <v>3018.392536090595</v>
+        <v>3018.392536090596</v>
       </c>
       <c r="R26" t="n">
         <v>3041.853815341008</v>
@@ -6263,13 +6263,13 @@
         <v>2496.704982335374</v>
       </c>
       <c r="W26" t="n">
-        <v>2248.745976948741</v>
+        <v>2496.704982335374</v>
       </c>
       <c r="X26" t="n">
-        <v>1981.291761226001</v>
+        <v>2229.250766612633</v>
       </c>
       <c r="Y26" t="n">
-        <v>1702.325830557605</v>
+        <v>1950.284835944238</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>129.2193616167592</v>
       </c>
       <c r="I27" t="n">
-        <v>60.83707630682016</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="J27" t="n">
         <v>121.0912228399263</v>
@@ -6327,13 +6327,13 @@
         <v>2564.770120049021</v>
       </c>
       <c r="R27" t="n">
-        <v>2504.985851143967</v>
+        <v>2519.698468604072</v>
       </c>
       <c r="S27" t="n">
-        <v>2352.186364156707</v>
+        <v>2366.898981616812</v>
       </c>
       <c r="T27" t="n">
-        <v>2163.501260322693</v>
+        <v>2178.213877782798</v>
       </c>
       <c r="U27" t="n">
         <v>1959.719085381108</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.4785731901144</v>
+        <v>358.4785731901142</v>
       </c>
       <c r="C28" t="n">
-        <v>303.438528407561</v>
+        <v>303.4385284075609</v>
       </c>
       <c r="D28" t="n">
-        <v>264.9425599910901</v>
+        <v>264.94255999109</v>
       </c>
       <c r="E28" t="n">
-        <v>227.5094705081753</v>
+        <v>227.5094705081752</v>
       </c>
       <c r="F28" t="n">
-        <v>189.6047402897188</v>
+        <v>189.6047402897187</v>
       </c>
       <c r="G28" t="n">
         <v>135.2609164133351</v>
       </c>
       <c r="H28" t="n">
-        <v>90.46419594837529</v>
+        <v>90.46419594837528</v>
       </c>
       <c r="I28" t="n">
-        <v>60.83707630682016</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="J28" t="n">
-        <v>114.2708406219774</v>
+        <v>114.2708406219775</v>
       </c>
       <c r="K28" t="n">
-        <v>260.1708922197474</v>
+        <v>260.1708922197481</v>
       </c>
       <c r="L28" t="n">
-        <v>473.0738354731335</v>
+        <v>473.0738354731342</v>
       </c>
       <c r="M28" t="n">
-        <v>703.3632054538618</v>
+        <v>703.3632054538625</v>
       </c>
       <c r="N28" t="n">
-        <v>934.0814110565888</v>
+        <v>934.0814110565896</v>
       </c>
       <c r="O28" t="n">
-        <v>1144.840921405405</v>
+        <v>1144.840921405406</v>
       </c>
       <c r="P28" t="n">
-        <v>1320.105268986669</v>
+        <v>1320.10526898667</v>
       </c>
       <c r="Q28" t="n">
         <v>1394.630684586278</v>
       </c>
       <c r="R28" t="n">
-        <v>1359.684827956423</v>
+        <v>1359.684827956422</v>
       </c>
       <c r="S28" t="n">
-        <v>1260.550990115877</v>
+        <v>1260.550990115876</v>
       </c>
       <c r="T28" t="n">
-        <v>1141.947961687322</v>
+        <v>1141.947961687321</v>
       </c>
       <c r="U28" t="n">
-        <v>969.333646932188</v>
+        <v>969.3336469321875</v>
       </c>
       <c r="V28" t="n">
-        <v>823.174267246377</v>
+        <v>823.1742672463765</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5937905195424</v>
+        <v>651.593790519542</v>
       </c>
       <c r="X28" t="n">
-        <v>534.9172511706845</v>
+        <v>534.9172511706842</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.4580171187279</v>
+        <v>427.4580171187276</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1744.242696779854</v>
+        <v>1422.858215795353</v>
       </c>
       <c r="C29" t="n">
-        <v>1476.884862868428</v>
+        <v>1258.639513221503</v>
       </c>
       <c r="D29" t="n">
-        <v>1218.636822851418</v>
+        <v>1000.391473204493</v>
       </c>
       <c r="E29" t="n">
-        <v>938.427027713291</v>
+        <v>720.1816780663667</v>
       </c>
       <c r="F29" t="n">
-        <v>638.8517617792277</v>
+        <v>420.6064121323034</v>
       </c>
       <c r="G29" t="n">
-        <v>337.323699989182</v>
+        <v>119.0783503422578</v>
       </c>
       <c r="H29" t="n">
-        <v>119.0783503422577</v>
+        <v>119.0783503422578</v>
       </c>
       <c r="I29" t="n">
-        <v>60.83707630682011</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="J29" t="n">
         <v>245.1314844327526</v>
       </c>
       <c r="K29" t="n">
-        <v>597.567720330662</v>
+        <v>597.5677203306623</v>
       </c>
       <c r="L29" t="n">
         <v>1057.748957268735</v>
@@ -6473,10 +6473,10 @@
         <v>1563.283987374949</v>
       </c>
       <c r="N29" t="n">
-        <v>2053.911209915791</v>
+        <v>2053.911209915792</v>
       </c>
       <c r="O29" t="n">
-        <v>2471.211658241752</v>
+        <v>2471.211658241753</v>
       </c>
       <c r="P29" t="n">
         <v>2811.664418550932</v>
@@ -6485,10 +6485,10 @@
         <v>3018.392536090596</v>
       </c>
       <c r="R29" t="n">
-        <v>3041.853815341009</v>
+        <v>3041.853815341008</v>
       </c>
       <c r="S29" t="n">
-        <v>2969.200764727129</v>
+        <v>2969.200764727128</v>
       </c>
       <c r="T29" t="n">
         <v>2859.417743213906</v>
@@ -6497,16 +6497,16 @@
         <v>2719.108331683667</v>
       </c>
       <c r="V29" t="n">
-        <v>2719.108331683667</v>
+        <v>2496.704982335375</v>
       </c>
       <c r="W29" t="n">
-        <v>2570.130457933243</v>
+        <v>2248.745976948742</v>
       </c>
       <c r="X29" t="n">
-        <v>2302.676242210502</v>
+        <v>1981.291761226001</v>
       </c>
       <c r="Y29" t="n">
-        <v>2023.710311542106</v>
+        <v>1702.325830557606</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>925.4372193487595</v>
+        <v>940.1498368088643</v>
       </c>
       <c r="C30" t="n">
-        <v>763.7335465897143</v>
+        <v>778.446164049819</v>
       </c>
       <c r="D30" t="n">
-        <v>624.8949095799263</v>
+        <v>639.6075270400311</v>
       </c>
       <c r="E30" t="n">
-        <v>477.8668996367975</v>
+        <v>492.5795170969022</v>
       </c>
       <c r="F30" t="n">
-        <v>343.1731015866719</v>
+        <v>357.8857190467766</v>
       </c>
       <c r="G30" t="n">
-        <v>229.1572190700612</v>
+        <v>229.1572190700611</v>
       </c>
       <c r="H30" t="n">
         <v>129.2193616167592</v>
@@ -6564,28 +6564,28 @@
         <v>2564.770120049021</v>
       </c>
       <c r="R30" t="n">
-        <v>2504.985851143967</v>
+        <v>2519.698468604072</v>
       </c>
       <c r="S30" t="n">
-        <v>2352.186364156707</v>
+        <v>2366.898981616812</v>
       </c>
       <c r="T30" t="n">
-        <v>2163.501260322693</v>
+        <v>2178.213877782798</v>
       </c>
       <c r="U30" t="n">
-        <v>1945.006467921003</v>
+        <v>1959.719085381108</v>
       </c>
       <c r="V30" t="n">
-        <v>1716.610845369337</v>
+        <v>1731.323462829442</v>
       </c>
       <c r="W30" t="n">
-        <v>1475.294976602647</v>
+        <v>1490.007594062752</v>
       </c>
       <c r="X30" t="n">
-        <v>1277.377988480441</v>
+        <v>1292.090605940546</v>
       </c>
       <c r="Y30" t="n">
-        <v>1084.85666213002</v>
+        <v>1099.569279590125</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.4785731901141</v>
+        <v>358.478573190114</v>
       </c>
       <c r="C31" t="n">
-        <v>303.4385284075609</v>
+        <v>303.4385284075607</v>
       </c>
       <c r="D31" t="n">
-        <v>264.94255999109</v>
+        <v>264.9425599910899</v>
       </c>
       <c r="E31" t="n">
-        <v>227.5094705081752</v>
+        <v>227.5094705081751</v>
       </c>
       <c r="F31" t="n">
-        <v>189.6047402897187</v>
+        <v>189.6047402897186</v>
       </c>
       <c r="G31" t="n">
         <v>135.2609164133351</v>
       </c>
       <c r="H31" t="n">
-        <v>90.46419594837525</v>
+        <v>90.46419594837526</v>
       </c>
       <c r="I31" t="n">
         <v>60.83707630682017</v>
@@ -6622,19 +6622,19 @@
         <v>114.2708406219775</v>
       </c>
       <c r="K31" t="n">
-        <v>260.1708922197477</v>
+        <v>260.1708922197476</v>
       </c>
       <c r="L31" t="n">
-        <v>473.0738354731338</v>
+        <v>473.0738354731337</v>
       </c>
       <c r="M31" t="n">
-        <v>703.3632054538623</v>
+        <v>703.3632054538621</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0814110565893</v>
+        <v>934.0814110565889</v>
       </c>
       <c r="O31" t="n">
-        <v>1144.840921405406</v>
+        <v>1144.840921405405</v>
       </c>
       <c r="P31" t="n">
         <v>1320.10526898667</v>
@@ -6683,64 +6683,64 @@
         <v>1075.750195008025</v>
       </c>
       <c r="E32" t="n">
-        <v>823.7051277364778</v>
+        <v>823.7051277364777</v>
       </c>
       <c r="F32" t="n">
-        <v>552.2945896689945</v>
+        <v>552.2945896689944</v>
       </c>
       <c r="G32" t="n">
         <v>278.9312557455287</v>
       </c>
       <c r="H32" t="n">
-        <v>88.85063396518412</v>
+        <v>88.85063396518404</v>
       </c>
       <c r="I32" t="n">
-        <v>58.77408779632637</v>
+        <v>58.77408779632634</v>
       </c>
       <c r="J32" t="n">
-        <v>130.772632069132</v>
+        <v>270.6727457042936</v>
       </c>
       <c r="K32" t="n">
-        <v>510.8131177490764</v>
+        <v>650.7132313842378</v>
       </c>
       <c r="L32" t="n">
-        <v>928.8741466869967</v>
+        <v>1138.498718104346</v>
       </c>
       <c r="M32" t="n">
-        <v>1322.113312940085</v>
+        <v>1671.637997992595</v>
       </c>
       <c r="N32" t="n">
-        <v>1840.344785262962</v>
+        <v>2189.869470315472</v>
       </c>
       <c r="O32" t="n">
-        <v>2285.249483370957</v>
+        <v>2565.049710641279</v>
       </c>
       <c r="P32" t="n">
-        <v>2653.306493462172</v>
+        <v>2793.206607097332</v>
       </c>
       <c r="Q32" t="n">
-        <v>2887.638860783871</v>
+        <v>2887.638860783869</v>
       </c>
       <c r="R32" t="n">
-        <v>2938.704389816318</v>
+        <v>2938.704389816317</v>
       </c>
       <c r="S32" t="n">
-        <v>2894.216067069019</v>
+        <v>2894.216067069017</v>
       </c>
       <c r="T32" t="n">
-        <v>2812.597773422376</v>
+        <v>2812.597773422374</v>
       </c>
       <c r="U32" t="n">
-        <v>2700.453089758716</v>
+        <v>2700.453089758715</v>
       </c>
       <c r="V32" t="n">
-        <v>2506.214468277003</v>
+        <v>2506.214468277002</v>
       </c>
       <c r="W32" t="n">
         <v>2286.42019075695</v>
       </c>
       <c r="X32" t="n">
-        <v>2047.13070290079</v>
+        <v>2047.130702900789</v>
       </c>
       <c r="Y32" t="n">
         <v>1796.329500098974</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>938.0868482983705</v>
+        <v>923.3742308382659</v>
       </c>
       <c r="C33" t="n">
-        <v>776.3831755393252</v>
+        <v>761.6705580792207</v>
       </c>
       <c r="D33" t="n">
-        <v>637.5445385295372</v>
+        <v>622.8319210694327</v>
       </c>
       <c r="E33" t="n">
-        <v>490.5165285864084</v>
+        <v>475.8039111263039</v>
       </c>
       <c r="F33" t="n">
-        <v>355.8227305362827</v>
+        <v>341.1101130761783</v>
       </c>
       <c r="G33" t="n">
-        <v>227.0942305595673</v>
+        <v>212.3816130994629</v>
       </c>
       <c r="H33" t="n">
-        <v>127.1563731062654</v>
+        <v>112.4437556461609</v>
       </c>
       <c r="I33" t="n">
-        <v>58.77408779632637</v>
+        <v>58.77408779632634</v>
       </c>
       <c r="J33" t="n">
         <v>119.0282343294325</v>
       </c>
       <c r="K33" t="n">
-        <v>348.5187868896212</v>
+        <v>348.5187868896211</v>
       </c>
       <c r="L33" t="n">
-        <v>714.3406320597369</v>
+        <v>714.3406320597368</v>
       </c>
       <c r="M33" t="n">
         <v>1199.373985569963</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>159.2624896135613</v>
+        <v>159.2624896135611</v>
       </c>
       <c r="C34" t="n">
-        <v>132.3871726975878</v>
+        <v>132.3871726975876</v>
       </c>
       <c r="D34" t="n">
-        <v>122.0559321476968</v>
+        <v>122.0559321476966</v>
       </c>
       <c r="E34" t="n">
-        <v>112.7875705313619</v>
+        <v>112.7875705313618</v>
       </c>
       <c r="F34" t="n">
-        <v>103.0475681794853</v>
+        <v>103.0475681794852</v>
       </c>
       <c r="G34" t="n">
-        <v>76.86847216968152</v>
+        <v>76.86847216968144</v>
       </c>
       <c r="H34" t="n">
-        <v>60.23647957130159</v>
+        <v>60.23647957130154</v>
       </c>
       <c r="I34" t="n">
-        <v>58.77408779632637</v>
+        <v>58.77408779632634</v>
       </c>
       <c r="J34" t="n">
         <v>139.8121018935186</v>
       </c>
       <c r="K34" t="n">
-        <v>201.447213692413</v>
+        <v>173.416289638162</v>
       </c>
       <c r="L34" t="n">
-        <v>302.0542930926725</v>
+        <v>413.9234826735831</v>
       </c>
       <c r="M34" t="n">
-        <v>420.0477992202742</v>
+        <v>559.9479128554353</v>
       </c>
       <c r="N34" t="n">
-        <v>678.3702546050362</v>
+        <v>678.3702546050357</v>
       </c>
       <c r="O34" t="n">
-        <v>776.8339011007258</v>
+        <v>776.8339011007254</v>
       </c>
       <c r="P34" t="n">
-        <v>839.8023848288636</v>
+        <v>839.8023848288632</v>
       </c>
       <c r="Q34" t="n">
-        <v>941.9320502105058</v>
+        <v>941.9320502105054</v>
       </c>
       <c r="R34" t="n">
-        <v>935.1509214472303</v>
+        <v>935.1509214472298</v>
       </c>
       <c r="S34" t="n">
-        <v>864.1818114732641</v>
+        <v>864.1818114732637</v>
       </c>
       <c r="T34" t="n">
-        <v>773.7435109112893</v>
+        <v>773.7435109112888</v>
       </c>
       <c r="U34" t="n">
-        <v>629.2939240227354</v>
+        <v>629.2939240227349</v>
       </c>
       <c r="V34" t="n">
-        <v>511.2992722035042</v>
+        <v>511.2992722035038</v>
       </c>
       <c r="W34" t="n">
-        <v>367.8835233432495</v>
+        <v>367.8835233432492</v>
       </c>
       <c r="X34" t="n">
-        <v>279.3717118609715</v>
+        <v>279.3717118609712</v>
       </c>
       <c r="Y34" t="n">
-        <v>200.0772056755949</v>
+        <v>200.0772056755946</v>
       </c>
     </row>
     <row r="35">
@@ -6914,46 +6914,46 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D35" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478543</v>
       </c>
       <c r="E35" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614934</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791959</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409159</v>
+        <v>221.1248745409162</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575747</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J35" t="n">
-        <v>163.2749745479474</v>
+        <v>163.2749745479476</v>
       </c>
       <c r="K35" t="n">
-        <v>403.4153465927301</v>
+        <v>567.8831210837627</v>
       </c>
       <c r="L35" t="n">
-        <v>751.3007196776764</v>
+        <v>915.768494168709</v>
       </c>
       <c r="M35" t="n">
-        <v>1144.539885930764</v>
+        <v>1473.475434912829</v>
       </c>
       <c r="N35" t="n">
-        <v>1522.87124461848</v>
+        <v>1851.806793600545</v>
       </c>
       <c r="O35" t="n">
-        <v>1992.343603582346</v>
+        <v>2156.811378073379</v>
       </c>
       <c r="P35" t="n">
-        <v>2220.500500038399</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q35" t="n">
         <v>2479.400528215969</v>
@@ -6962,13 +6962,13 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242173</v>
+        <v>2535.611879242174</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480718</v>
       </c>
       <c r="U35" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702244</v>
       </c>
       <c r="V35" t="n">
         <v>2222.809732105717</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C36" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D36" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E36" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F36" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G36" t="n">
         <v>219.4208171253267</v>
@@ -7011,13 +7011,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7050,16 +7050,16 @@
         <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X36" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y36" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="37">
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208573</v>
+        <v>59.3673192722844</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208573</v>
+        <v>59.3673192722844</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208573</v>
+        <v>59.3673192722844</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672914</v>
+        <v>92.9715070169278</v>
       </c>
       <c r="L37" t="n">
-        <v>185.3119415069887</v>
+        <v>193.5785864171873</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>311.572092544789</v>
       </c>
       <c r="N37" t="n">
-        <v>421.7277893841908</v>
+        <v>429.9944342943894</v>
       </c>
       <c r="O37" t="n">
-        <v>520.1914358798805</v>
+        <v>528.4580807900791</v>
       </c>
       <c r="P37" t="n">
-        <v>583.1599196080183</v>
+        <v>591.4265645182169</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.3786802696717</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="R37" t="n">
         <v>629.3786802696717</v>
@@ -7126,19 +7126,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007348</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W37" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X37" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>527.7073651707066</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L38" t="n">
-        <v>875.5927382556529</v>
+        <v>1080.236268659741</v>
       </c>
       <c r="M38" t="n">
-        <v>1433.299678999773</v>
+        <v>1473.475434912829</v>
       </c>
       <c r="N38" t="n">
-        <v>1811.631037687489</v>
+        <v>1851.806793600545</v>
       </c>
       <c r="O38" t="n">
-        <v>2232.444567961697</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P38" t="n">
-        <v>2460.60146441775</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H39" t="n">
         <v>119.4829596720247</v>
@@ -7251,13 +7251,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
-        <v>111.3548208951919</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K39" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M39" t="n">
         <v>1191.700572135723</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7330,13 +7330,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208574</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672915</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L40" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M40" t="n">
         <v>349.5242082962438</v>
@@ -7415,22 +7415,22 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>826.9339095659944</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M41" t="n">
-        <v>1384.640850310115</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N41" t="n">
-        <v>1927.439983488863</v>
+        <v>1851.806793600545</v>
       </c>
       <c r="O41" t="n">
-        <v>2232.444567961697</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P41" t="n">
-        <v>2460.60146441775</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q41" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H42" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I42" t="n">
         <v>51.10067436208574</v>
@@ -7494,7 +7494,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M42" t="n">
         <v>1191.700572135723</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670347</v>
+        <v>56.26358779153714</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208574</v>
+        <v>55.15097566691941</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208574</v>
+        <v>55.15097566691941</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208574</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208574</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672915</v>
+        <v>111.8895340887804</v>
       </c>
       <c r="L43" t="n">
-        <v>185.3119415069887</v>
+        <v>212.4966134890399</v>
       </c>
       <c r="M43" t="n">
-        <v>303.3054476345904</v>
+        <v>330.4901196166417</v>
       </c>
       <c r="N43" t="n">
-        <v>421.7277893841908</v>
+        <v>448.912461366242</v>
       </c>
       <c r="O43" t="n">
-        <v>548.4887199865494</v>
+        <v>547.3761078619317</v>
       </c>
       <c r="P43" t="n">
-        <v>611.4572037146872</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q43" t="n">
-        <v>611.4572037146872</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="44">
@@ -7628,19 +7628,19 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.7443621478542</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E44" t="n">
-        <v>715.7657787614933</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G44" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575751</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208573</v>
@@ -7649,25 +7649,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>527.7073651707065</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.060512746685</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M44" t="n">
-        <v>1433.299678999773</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N44" t="n">
-        <v>1811.631037687489</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O44" t="n">
-        <v>2116.635622160323</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P44" t="n">
-        <v>2344.792518616376</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q44" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7688,10 +7688,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C45" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D45" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E45" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F45" t="n">
         <v>348.1493171020421</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S45" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X45" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y45" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749101</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670351</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670351</v>
+        <v>65.54268635500836</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670351</v>
+        <v>65.91841943632294</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670351</v>
+        <v>65.91841943632294</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208573</v>
+        <v>64.80580731170521</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208573</v>
+        <v>73.07245222190386</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208573</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J46" t="n">
-        <v>97.31943502373986</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K46" t="n">
-        <v>130.9236227683833</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L46" t="n">
-        <v>231.5307021686428</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M46" t="n">
-        <v>349.5242082962445</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N46" t="n">
-        <v>467.9465500458449</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O46" t="n">
-        <v>566.4101965415346</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P46" t="n">
-        <v>629.3786802696724</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.3786802696724</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R46" t="n">
-        <v>629.3786802696724</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808921</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041031</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U46" t="n">
-        <v>398.7211345007352</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V46" t="n">
-        <v>305.79296656669</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W46" t="n">
-        <v>187.4437015916213</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945293</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433861</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
   </sheetData>
@@ -7991,13 +7991,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>392.9327235060165</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>418.3383206229274</v>
+        <v>411.6169233222598</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8058,25 +8058,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>363.6577212424763</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>606.230985951526</v>
+        <v>597.1761611888023</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8222,10 +8222,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>482.2600814051298</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>568.5510017355793</v>
+        <v>466.4434896000259</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
@@ -8292,10 +8292,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
@@ -8304,16 +8304,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>606.230985951526</v>
+        <v>597.1761611888023</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>111.3799633235299</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,16 +8529,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>387.98835840707</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8550,7 +8550,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K12" t="n">
-        <v>274.3631550803439</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>264.5215952964586</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>203.6588210205949</v>
+        <v>264.5215952964586</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>203.6588210205949</v>
+        <v>203.6588210205935</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9492,13 +9492,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>503.4421362996034</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>203.6588210205949</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>203.6588210205953</v>
+        <v>264.5215952964577</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425316</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -11139,7 +11139,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163523</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>257.9688625006564</v>
       </c>
       <c r="C11" t="n">
         <v>268.8129305257623</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>220.1915711039055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>61.7875362485336</v>
+        <v>61.78753624853353</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>76.05519506119116</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>112.8138662515405</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>143.0349923683875</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>249.6080902862166</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>120.0732547916523</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.187433541536</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>33.45952339858984</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>64.97139043162795</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.24348028868349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>280.8016135680805</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.78753624853359</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>143.0349923683875</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>197.1344155339679</v>
+        <v>224.3079908082596</v>
       </c>
       <c r="W14" t="n">
-        <v>249.6080902862166</v>
+        <v>135.0588322645683</v>
       </c>
       <c r="X14" t="n">
-        <v>268.9083485189632</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>280.3049463151619</v>
       </c>
     </row>
     <row r="15">
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>41.65435786972222</v>
       </c>
       <c r="G16" t="n">
-        <v>16.49396221787065</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>48.47742821376056</v>
+        <v>23.31703256190607</v>
       </c>
       <c r="I16" t="n">
-        <v>33.45952339858991</v>
+        <v>33.45952339858982</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>260.5117748795737</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>72.69122084189061</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508327</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>102.107740024201</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24737,10 +24737,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>97.99132031984674</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795790.8428707964</v>
+        <v>795790.8428707966</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>795790.8428707964</v>
+        <v>795790.8428707963</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>460574.4362965092</v>
+      </c>
+      <c r="C2" t="n">
         <v>460574.4362965089</v>
       </c>
-      <c r="C2" t="n">
-        <v>460574.436296509</v>
-      </c>
       <c r="D2" t="n">
-        <v>460574.4362965088</v>
+        <v>460574.4362965089</v>
       </c>
       <c r="E2" t="n">
-        <v>415195.2223673719</v>
+        <v>415195.2223673718</v>
       </c>
       <c r="F2" t="n">
-        <v>415195.2223673719</v>
+        <v>415195.2223673717</v>
       </c>
       <c r="G2" t="n">
         <v>460574.4362965091</v>
       </c>
       <c r="H2" t="n">
-        <v>460574.4362965092</v>
+        <v>460574.4362965091</v>
       </c>
       <c r="I2" t="n">
-        <v>460574.4362965092</v>
+        <v>460574.4362965091</v>
       </c>
       <c r="J2" t="n">
-        <v>445378.6067128071</v>
+        <v>445378.6067128072</v>
       </c>
       <c r="K2" t="n">
         <v>445378.6067128074</v>
       </c>
       <c r="L2" t="n">
-        <v>460574.4362965082</v>
+        <v>460574.4362965083</v>
       </c>
       <c r="M2" t="n">
         <v>460574.4362965089</v>
       </c>
       <c r="N2" t="n">
-        <v>460574.4362965089</v>
+        <v>460574.436296509</v>
       </c>
       <c r="O2" t="n">
         <v>460574.4362965091</v>
       </c>
       <c r="P2" t="n">
-        <v>460574.436296509</v>
+        <v>460574.4362965089</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8010.326512683636</v>
+        <v>8010.326512683707</v>
       </c>
       <c r="E3" t="n">
         <v>116080.0978984154</v>
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49091.91375765713</v>
+        <v>49091.91375765709</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>208779.5291838293</v>
+        <v>208779.5291838294</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>71398.37822798837</v>
       </c>
       <c r="M3" t="n">
-        <v>19852.6552370673</v>
+        <v>19852.65523706735</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192725.694374503</v>
+        <v>192725.6943745031</v>
       </c>
       <c r="C4" t="n">
-        <v>192725.694374503</v>
+        <v>192725.6943745031</v>
       </c>
       <c r="D4" t="n">
         <v>185775.7593332932</v>
       </c>
       <c r="E4" t="n">
-        <v>134251.7556368557</v>
+        <v>134251.7556368558</v>
       </c>
       <c r="F4" t="n">
-        <v>134251.7556368557</v>
+        <v>134251.7556368558</v>
       </c>
       <c r="G4" t="n">
         <v>177182.3714644569</v>
@@ -26439,7 +26439,7 @@
         <v>177182.3714644569</v>
       </c>
       <c r="J4" t="n">
-        <v>161896.3971701086</v>
+        <v>161896.3971701087</v>
       </c>
       <c r="K4" t="n">
         <v>161896.3971701087</v>
@@ -26457,7 +26457,7 @@
         <v>175623.1205402357</v>
       </c>
       <c r="P4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
     </row>
     <row r="5">
@@ -26467,40 +26467,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63998.16336893612</v>
+        <v>63998.1633689361</v>
       </c>
       <c r="C5" t="n">
-        <v>63998.16336893612</v>
+        <v>63998.1633689361</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46959.09585638227</v>
+        <v>46959.09585638225</v>
       </c>
       <c r="F5" t="n">
-        <v>46959.09585638227</v>
+        <v>46959.09585638226</v>
       </c>
       <c r="G5" t="n">
-        <v>52117.98097849786</v>
+        <v>52117.98097849784</v>
       </c>
       <c r="H5" t="n">
-        <v>52117.98097849786</v>
+        <v>52117.98097849785</v>
       </c>
       <c r="I5" t="n">
-        <v>52117.98097849787</v>
+        <v>52117.98097849784</v>
       </c>
       <c r="J5" t="n">
-        <v>55772.13857729291</v>
+        <v>55772.13857729292</v>
       </c>
       <c r="K5" t="n">
-        <v>55772.13857729293</v>
+        <v>55772.13857729292</v>
       </c>
       <c r="L5" t="n">
-        <v>56548.37001126298</v>
+        <v>56548.37001126296</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264638</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
@@ -26509,7 +26509,7 @@
         <v>52802.81689264637</v>
       </c>
       <c r="P5" t="n">
-        <v>52802.81689264636</v>
+        <v>52802.81689264637</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36451.33006807014</v>
+        <v>36451.33006807038</v>
       </c>
       <c r="C6" t="n">
-        <v>203850.5785530698</v>
+        <v>203850.5785530697</v>
       </c>
       <c r="D6" t="n">
-        <v>201222.3158136205</v>
+        <v>201222.3158136206</v>
       </c>
       <c r="E6" t="n">
-        <v>117904.2729757185</v>
+        <v>117715.1929176804</v>
       </c>
       <c r="F6" t="n">
-        <v>233984.3708741339</v>
+        <v>233795.2908160956</v>
       </c>
       <c r="G6" t="n">
-        <v>182182.1700958972</v>
+        <v>182182.1700958973</v>
       </c>
       <c r="H6" t="n">
-        <v>231274.0838535545</v>
+        <v>231274.0838535543</v>
       </c>
       <c r="I6" t="n">
-        <v>231274.0838535544</v>
+        <v>231274.0838535543</v>
       </c>
       <c r="J6" t="n">
-        <v>18930.54178157629</v>
+        <v>18867.22582497741</v>
       </c>
       <c r="K6" t="n">
-        <v>227710.0709654056</v>
+        <v>227646.755008807</v>
       </c>
       <c r="L6" t="n">
-        <v>156520.8045178196</v>
+        <v>156520.8045178198</v>
       </c>
       <c r="M6" t="n">
-        <v>212295.8436265596</v>
+        <v>212295.8436265595</v>
       </c>
       <c r="N6" t="n">
-        <v>232148.4988636269</v>
+        <v>232148.498863627</v>
       </c>
       <c r="O6" t="n">
         <v>190496.2802147172</v>
       </c>
       <c r="P6" t="n">
-        <v>232148.498863627</v>
+        <v>232148.4988636269</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="F2" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="G2" t="n">
         <v>170.6663827518298</v>
       </c>
       <c r="H2" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="I2" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="J2" t="n">
         <v>113.4301655082087</v>
@@ -26787,40 +26787,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.5158448838177</v>
+        <v>499.5158448838175</v>
       </c>
       <c r="C4" t="n">
-        <v>499.5158448838177</v>
+        <v>499.5158448838175</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>621.2208691929982</v>
+        <v>621.2208691929978</v>
       </c>
       <c r="F4" t="n">
-        <v>621.2208691929982</v>
+        <v>621.2208691929978</v>
       </c>
       <c r="G4" t="n">
-        <v>621.2208691929982</v>
+        <v>621.2208691929978</v>
       </c>
       <c r="H4" t="n">
-        <v>621.2208691929982</v>
+        <v>621.2208691929978</v>
       </c>
       <c r="I4" t="n">
-        <v>621.2208691929983</v>
+        <v>621.2208691929976</v>
       </c>
       <c r="J4" t="n">
-        <v>760.4634538352519</v>
+        <v>760.463453835252</v>
       </c>
       <c r="K4" t="n">
-        <v>760.4634538352522</v>
+        <v>760.463453835252</v>
       </c>
       <c r="L4" t="n">
-        <v>734.6760974540796</v>
+        <v>734.6760974540792</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260718</v>
       </c>
       <c r="N4" t="n">
         <v>638.7584295260717</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.36489219707141</v>
+        <v>61.36489219707136</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>52.06527331113729</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>89.24797278498546</v>
       </c>
       <c r="M2" t="n">
-        <v>24.81581904633413</v>
+        <v>24.81581904633418</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.5158448838177</v>
+        <v>499.5158448838175</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.78735638117257</v>
+        <v>25.7873563811728</v>
       </c>
       <c r="E4" t="n">
-        <v>95.91766792800786</v>
+        <v>95.91766792800752</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260714</v>
+        <v>638.758429526072</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.36489219707141</v>
+        <v>61.36489219707136</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>52.06527331113729</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>499.5158448838177</v>
+        <v>499.5158448838175</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.78735638117257</v>
+        <v>25.7873563811728</v>
       </c>
       <c r="M4" t="n">
-        <v>95.91766792800786</v>
+        <v>95.91766792800752</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>231.6295843025968</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>66.70650746029162</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>157.6819426360979</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50.4020391192164</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>118.4346569691627</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
@@ -27582,19 +27582,19 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>63.70773940111971</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
@@ -27603,7 +27603,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>11.58264766152871</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -27673,10 +27673,10 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>189.087194997737</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.40203911921556</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>50.40203911921671</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>94.16710381075333</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
@@ -27831,16 +27831,16 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>234.4989432911091</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>193.6329783859632</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -27862,13 +27862,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>99.75693334456926</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27941,13 +27941,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>208.8778621094304</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>95.13598719576714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>124.9310703838087</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
@@ -28077,7 +28077,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.53713850962399</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="C11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="D11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="E11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="F11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="G11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="H11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="I11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="J11" t="n">
-        <v>32.32115180167821</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="L11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>32.32115180167671</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>109.3014905547583</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>109.3014905547583</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="S11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="T11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="U11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="V11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="W11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="X11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Y11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
     </row>
     <row r="12">
@@ -28214,13 +28214,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>23.43882921009323</v>
       </c>
       <c r="T12" t="n">
-        <v>82.62525542609579</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="C13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="D13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="E13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="F13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="G13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="H13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="I13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="K13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="L13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="M13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="N13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="O13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="P13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Q13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="R13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="S13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="T13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="U13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="V13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="W13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="X13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="C14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="D14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="E14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="F14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="G14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="H14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="I14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>32.32115180167665</v>
       </c>
       <c r="M14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>109.3014905547583</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Q14" t="n">
-        <v>32.3211518016784</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="S14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="T14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="U14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="V14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="W14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="X14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Y14" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>82.62525542609576</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -28415,7 +28415,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>82.62525542609711</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="C16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="D16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="E16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="F16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="G16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="H16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="I16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="K16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="L16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="M16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="N16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="O16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="P16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Q16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="R16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="S16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="T16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="U16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="V16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="W16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="X16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547584</v>
       </c>
     </row>
     <row r="17">
@@ -28585,31 +28585,31 @@
         <v>170.6663827518298</v>
       </c>
       <c r="J17" t="n">
+        <v>128.1943485170511</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>170.6663827518298</v>
       </c>
-      <c r="K17" t="n">
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>170.6663827518298</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>38.46244487794695</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>170.6663827518298</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>82.62525542609566</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>23.43882921009323</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.8510817745001</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>154.7256774134176</v>
       </c>
       <c r="S19" t="n">
         <v>170.6663827518298</v>
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="C20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="D20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="E20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="F20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="G20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="H20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="I20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>128.1943485170524</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>38.46244487794536</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>170.6663827518297</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.6663827518297</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="T20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="U20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="V20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="W20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="X20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="Y20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
     </row>
     <row r="21">
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>23.43882921009323</v>
       </c>
       <c r="T21" t="n">
-        <v>82.62525542609579</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -28992,10 +28992,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>6.699113841652434</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>6.699113841651538</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="T22" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="U22" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="V22" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="W22" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="X22" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="Y22" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
     </row>
     <row r="23">
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="C23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="D23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="E23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="F23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="G23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="H23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="I23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>128.19434851705</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,7 +29071,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>170.6663827518297</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29080,31 +29080,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>170.6663827518297</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>128.1943485170529</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="S23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="T23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="U23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="V23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="W23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="X23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="Y23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
     </row>
     <row r="24">
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>82.62525542609795</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29180,7 +29180,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>82.62525542609524</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29193,13 +29193,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>158.2402880821664</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>6.699113841652419</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="T25" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="U25" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="V25" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="W25" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="X25" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="Y25" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
     </row>
     <row r="26">
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29408,7 +29408,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082093</v>
       </c>
       <c r="L28" t="n">
         <v>113.4301655082087</v>
@@ -29475,7 +29475,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.4301655082103</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R28" t="n">
         <v>113.4301655082087</v>
@@ -29603,7 +29603,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>14.56549128550361</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29770,28 +29770,28 @@
         <v>141.3132460961228</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="K32" t="n">
         <v>141.3132460961228</v>
       </c>
       <c r="L32" t="n">
-        <v>70.88450086159003</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="N32" t="n">
         <v>141.3132460961228</v>
       </c>
       <c r="O32" t="n">
-        <v>141.3132460961228</v>
+        <v>70.88450086158855</v>
       </c>
       <c r="P32" t="n">
-        <v>141.3132460961228</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.3132460961228</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>141.3132460961228</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>14.56549128550336</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29931,16 +29931,16 @@
         <v>141.3132460961228</v>
       </c>
       <c r="K34" t="n">
-        <v>28.31406470126356</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>28.31406470126311</v>
       </c>
       <c r="N34" t="n">
-        <v>141.3132460961228</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -30007,28 +30007,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>40.5815716293495</v>
+        <v>40.58157162934967</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>166.1290651424569</v>
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -30122,7 +30122,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>14.56549128550333</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30159,7 +30159,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.83758476280077</v>
+        <v>58.38493681817145</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30244,31 +30244,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>40.5815716293493</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>116.9787331327006</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30353,7 +30353,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>59.456666199969</v>
+        <v>106.142283029922</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30487,10 +30487,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>116.9787331327011</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M41" t="n">
-        <v>166.1290651424569</v>
+        <v>40.58157162934936</v>
       </c>
       <c r="N41" t="n">
         <v>166.1290651424569</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S41" t="n">
         <v>166.1290651424569</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30627,7 +30627,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>156.1709124946336</v>
       </c>
       <c r="G43" t="n">
         <v>166.1290651424569</v>
@@ -30636,7 +30636,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I43" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J43" t="n">
         <v>59.456666199969</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>28.5831152592616</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30721,7 +30721,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>166.1290651424569</v>
@@ -30736,13 +30736,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>40.58157162934918</v>
       </c>
       <c r="Q44" t="n">
-        <v>116.9787331327008</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30858,10 +30858,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>150.8684524612586</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -30870,13 +30870,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1422830299227</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>205.9779267258961</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>230.4615115717709</v>
+        <v>223.7401142711034</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>248.1738186808364</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>499.5158448838177</v>
+        <v>490.461020121094</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34942,10 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>295.1037669079707</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>382.1528875633492</v>
+        <v>280.0453754277958</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
@@ -35024,16 +35024,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>499.5158448838177</v>
+        <v>490.461020121094</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>2.525757299386584</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>272.5044558454301</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35270,7 +35270,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>105.0469540974415</v>
+        <v>182.0272928505217</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5660323684674</v>
+        <v>351.8675229232259</v>
       </c>
       <c r="L11" t="n">
         <v>460.7008573072293</v>
       </c>
       <c r="M11" t="n">
-        <v>397.2112790435232</v>
+        <v>429.5324308451999</v>
       </c>
       <c r="N11" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>417.3869294162068</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>339.7630021265293</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>19.56958691565316</v>
+        <v>19.56958691565323</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>162.3669859136772</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117113</v>
+        <v>150.7864038515661</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.84482435478935</v>
+        <v>49.84482435478942</v>
       </c>
       <c r="K13" t="n">
-        <v>143.2451145392466</v>
+        <v>143.2451145392467</v>
       </c>
       <c r="L13" t="n">
-        <v>210.924803080273</v>
+        <v>210.9248030802731</v>
       </c>
       <c r="M13" t="n">
         <v>228.4868502796086</v>
       </c>
       <c r="N13" t="n">
-        <v>228.9200175745567</v>
+        <v>228.9200175745568</v>
       </c>
       <c r="O13" t="n">
         <v>208.7597193382833</v>
       </c>
       <c r="P13" t="n">
-        <v>172.9060195730793</v>
+        <v>172.9060195730794</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.14952262191049</v>
+        <v>71.14952262191056</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.72580229576329</v>
+        <v>182.0272928505217</v>
       </c>
       <c r="K14" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
-        <v>351.3993667524709</v>
+        <v>383.7205185541476</v>
       </c>
       <c r="M14" t="n">
-        <v>506.5127695982815</v>
+        <v>506.5127695982816</v>
       </c>
       <c r="N14" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>417.3869294162068</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>339.7630021265293</v>
+        <v>339.7630021265294</v>
       </c>
       <c r="Q14" t="n">
-        <v>127.7072666365643</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
-        <v>19.56958691565316</v>
+        <v>19.56958691565325</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.92362957570236</v>
+        <v>150.7864038515661</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.84482435478935</v>
+        <v>49.84482435478943</v>
       </c>
       <c r="K16" t="n">
-        <v>143.2451145392466</v>
+        <v>143.2451145392467</v>
       </c>
       <c r="L16" t="n">
-        <v>210.924803080273</v>
+        <v>210.9248030802731</v>
       </c>
       <c r="M16" t="n">
-        <v>228.4868502796086</v>
+        <v>228.4868502796087</v>
       </c>
       <c r="N16" t="n">
-        <v>228.9200175745567</v>
+        <v>228.9200175745568</v>
       </c>
       <c r="O16" t="n">
-        <v>208.7597193382833</v>
+        <v>208.7597193382834</v>
       </c>
       <c r="P16" t="n">
-        <v>172.9060195730793</v>
+        <v>172.9060195730794</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.14952262191049</v>
+        <v>71.14952262191058</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>243.392185047593</v>
+        <v>200.9201508128143</v>
       </c>
       <c r="K17" t="n">
-        <v>413.2324151202972</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
         <v>351.3993667524709</v>
@@ -35899,13 +35899,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>268.9239564497179</v>
+        <v>401.1278943236007</v>
       </c>
       <c r="Q17" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>80.9344791127246</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.92362957570236</v>
+        <v>89.92362957570099</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36060,10 +36060,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.699113841652245</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.699113841652015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>72.72580229576329</v>
+        <v>243.3921850475931</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>479.5937152695233</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>567.877661795353</v>
       </c>
       <c r="N20" t="n">
-        <v>382.1528875633492</v>
+        <v>420.6153324412946</v>
       </c>
       <c r="O20" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>401.1278943236007</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>80.93447911272455</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
@@ -36212,13 +36212,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
-        <v>396.1615664486372</v>
+        <v>387.5826876884923</v>
       </c>
       <c r="P21" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.92362957570236</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,10 +36288,10 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
-        <v>126.3176408614508</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O22" t="n">
-        <v>99.45822878352493</v>
+        <v>106.1573426251765</v>
       </c>
       <c r="P22" t="n">
         <v>63.604529018321</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.72580229576329</v>
+        <v>243.3921850475931</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5660323684674</v>
+        <v>370.7603808855175</v>
       </c>
       <c r="L23" t="n">
         <v>351.3993667524709</v>
@@ -36367,7 +36367,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>552.819270315179</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
         <v>308.0854388614484</v>
@@ -36376,10 +36376,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>266.0524975867156</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>38.46244487794772</v>
+        <v>80.93447911272466</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.92362957570283</v>
+        <v>150.7864038515652</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36495,7 +36495,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>6.699113841651549</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M25" t="n">
-        <v>125.8844735665026</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N25" t="n">
         <v>119.6185270197983</v>
@@ -36616,7 +36616,7 @@
         <v>208.8162803430945</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910349</v>
+        <v>23.69826186910352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823967</v>
+        <v>53.9734993082397</v>
       </c>
       <c r="K28" t="n">
-        <v>147.373789492697</v>
+        <v>147.3737894926976</v>
       </c>
       <c r="L28" t="n">
-        <v>215.0534780337233</v>
+        <v>215.0534780337234</v>
       </c>
       <c r="M28" t="n">
         <v>232.6155252330589</v>
       </c>
       <c r="N28" t="n">
-        <v>233.048692528007</v>
+        <v>233.0486925280071</v>
       </c>
       <c r="O28" t="n">
         <v>212.8883942917336</v>
@@ -36771,7 +36771,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.2781975753624</v>
+        <v>75.27819757536085</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
-        <v>421.5156043696572</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P29" t="n">
         <v>343.8916770799797</v>
@@ -36853,7 +36853,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -36996,19 +36996,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M31" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N31" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P31" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.72580229576329</v>
+        <v>214.0390483918861</v>
       </c>
       <c r="K32" t="n">
         <v>383.8792784645902</v>
       </c>
       <c r="L32" t="n">
-        <v>422.283867614061</v>
+        <v>492.7126128485937</v>
       </c>
       <c r="M32" t="n">
-        <v>397.2112790435232</v>
+        <v>538.524525139646</v>
       </c>
       <c r="N32" t="n">
         <v>523.466133659472</v>
       </c>
       <c r="O32" t="n">
-        <v>449.3986849575712</v>
+        <v>378.969939723037</v>
       </c>
       <c r="P32" t="n">
-        <v>371.7747576678937</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
-        <v>236.6993609310086</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
-        <v>51.5813424570176</v>
+        <v>51.58134245701763</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.85657989615379</v>
+        <v>81.85657989615382</v>
       </c>
       <c r="K34" t="n">
-        <v>62.25768868575186</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>242.9365586216375</v>
       </c>
       <c r="M34" t="n">
-        <v>119.1853597248502</v>
+        <v>147.4994244261133</v>
       </c>
       <c r="N34" t="n">
-        <v>260.9317731159211</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
         <v>99.45822878352493</v>
@@ -37245,7 +37245,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.1612781632749</v>
+        <v>103.161278163275</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>113.3073739251128</v>
+        <v>113.307373925113</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N35" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
         <v>76.39716150335175</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37482,10 +37482,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.68561682995292</v>
+        <v>20.2329688853236</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,22 +37540,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
         <v>408.6950975109244</v>
       </c>
       <c r="L38" t="n">
-        <v>351.3993667524709</v>
+        <v>391.9809383818202</v>
       </c>
       <c r="M38" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>425.064171994149</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
         <v>230.4615115717709</v>
@@ -37564,7 +37564,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586479</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K39" t="n">
         <v>231.8086389496855</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>46.68561682995296</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
@@ -37707,7 +37707,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M40" t="n">
-        <v>165.8709765548032</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N40" t="n">
         <v>119.6185270197983</v>
@@ -37783,10 +37783,10 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>468.378099885172</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M41" t="n">
-        <v>563.3403441859801</v>
+        <v>437.7928506728725</v>
       </c>
       <c r="N41" t="n">
         <v>548.2819527058061</v>
@@ -37801,7 +37801,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
-        <v>231.8086389496856</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L42" t="n">
         <v>369.5170153233491</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>5.21506407015293</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
-        <v>128.0413440427865</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
         <v>63.604529018321</v>
@@ -38017,7 +38017,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>408.6950975109243</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
         <v>517.5284318949278</v>
@@ -38032,13 +38032,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717709</v>
+        <v>271.0430832011201</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3648479675866</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38154,10 +38154,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.3795283649642207</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38166,13 +38166,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J46" t="n">
-        <v>46.68561682995367</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>33.9436239844883</v>
